--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1869143.101806656</v>
+        <v>1884448.601441958</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8189509.340766672</v>
+        <v>8189509.340766674</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7531895.378679867</v>
+        <v>7531895.378679866</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>192.9610988726774</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>136.0603471129855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>234.9282846420058</v>
+        <v>201.2173864853858</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
-        <v>37.10634673358876</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>208.2638363878124</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>19.47368335616942</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1260,25 +1260,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>83.99255156561418</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>322.1238511850647</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>322.1238511850647</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>198.9153677749005</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>84.81132034890435</v>
+        <v>251.3216637568439</v>
       </c>
       <c r="V11" t="n">
-        <v>322.1238511850647</v>
+        <v>32.40502436696085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.1238511850647</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>145.871288092173</v>
       </c>
       <c r="E12" t="n">
-        <v>155.9513426562412</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>90.19638163662492</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>168.7030389050997</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.5180364892395</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>279.8270703574375</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>322.1238511850647</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>322.1238511850647</v>
       </c>
       <c r="H14" t="n">
         <v>261.5478446949906</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>124.0593965116551</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>56.17679035245423</v>
       </c>
       <c r="S14" t="n">
-        <v>91.72434602628255</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>146.9272219450121</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>294.8751294152236</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>17.13928580475729</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>91.67721238662195</v>
       </c>
       <c r="C15" t="n">
-        <v>97.85252772507035</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>72.58909430139336</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>82.78910919215555</v>
@@ -1698,13 +1698,13 @@
         <v>70.21324113013848</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>62.32710430815596</v>
       </c>
       <c r="H15" t="n">
         <v>35.82994496814566</v>
       </c>
       <c r="I15" t="n">
-        <v>9.016685729823894</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>15.34041037337952</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>93.84706764185428</v>
@@ -1746,10 +1746,10 @@
         <v>157.9446158861799</v>
       </c>
       <c r="W15" t="n">
-        <v>176.8390118976742</v>
+        <v>117.989287035615</v>
       </c>
       <c r="X15" t="n">
-        <v>31.27288764328352</v>
+        <v>130.9170139402321</v>
       </c>
       <c r="Y15" t="n">
         <v>130.826724514059</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>104.9760089186919</v>
       </c>
       <c r="C16" t="n">
-        <v>45.5137805036558</v>
+        <v>92.39084983538244</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>70.56507675968585</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>93.00049925422285</v>
+        <v>11.67332573453988</v>
       </c>
       <c r="H16" t="n">
-        <v>86.17529536702389</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>146.8165045175556</v>
       </c>
       <c r="T16" t="n">
         <v>152.5148985717129</v>
       </c>
       <c r="U16" t="n">
-        <v>211.4557212473733</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>150.8536841257917</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>84.07710100418754</v>
+        <v>322.1238511850647</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>322.1238511850647</v>
       </c>
       <c r="H17" t="n">
         <v>261.5478446949906</v>
       </c>
       <c r="I17" t="n">
-        <v>124.0593965116551</v>
+        <v>13.74090680725706</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>176.4656924935985</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>252.8962872068895</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>274.3849974541676</v>
       </c>
       <c r="X17" t="n">
-        <v>294.8751294152236</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.444035218122379</v>
+        <v>91.67721238662195</v>
       </c>
       <c r="C18" t="n">
         <v>97.85252772507035</v>
@@ -1941,7 +1941,7 @@
         <v>35.82994496814566</v>
       </c>
       <c r="I18" t="n">
-        <v>9.016685729823893</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>124.6620652259941</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>151.0748554498473</v>
       </c>
       <c r="V18" t="n">
-        <v>157.9446158861799</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>176.8390118976742</v>
@@ -1989,7 +1989,7 @@
         <v>130.9170139402321</v>
       </c>
       <c r="Y18" t="n">
-        <v>130.826724514059</v>
+        <v>59.47999351171588</v>
       </c>
     </row>
     <row r="19">
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>117.9729798240057</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>152.5148985717129</v>
       </c>
       <c r="U19" t="n">
-        <v>211.4557212473733</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>177.2816720605826</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>211.6670270733456</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>117.7616739980335</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>264.5077676801218</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>251.4761351091198</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>146.9272219450121</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>176.4656924935985</v>
       </c>
       <c r="V20" t="n">
         <v>252.8962872068895</v>
@@ -2144,10 +2144,10 @@
         <v>274.3849974541676</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>294.8751294152236</v>
       </c>
       <c r="Y20" t="n">
-        <v>311.3819673928082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>91.67721238662195</v>
       </c>
       <c r="C21" t="n">
-        <v>97.85252772507035</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>72.58909430139336</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>82.78910919215555</v>
       </c>
       <c r="F21" t="n">
-        <v>70.21324113013848</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>49.33352447303173</v>
       </c>
       <c r="H21" t="n">
         <v>35.82994496814566</v>
       </c>
       <c r="I21" t="n">
-        <v>7.502078998410531</v>
+        <v>9.016685729823893</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>15.34041037337952</v>
       </c>
       <c r="S21" t="n">
         <v>93.84706764185428</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>7.77920452009296</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>93.00049925422285</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>86.17529536702389</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>76.54945597313426</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>146.8165045175556</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>152.5148985717129</v>
       </c>
       <c r="U22" t="n">
-        <v>211.4557212473733</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>150.8536841257917</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.709948313022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>279.8270703574375</v>
+        <v>14.797232009177</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>217.8573281544897</v>
+        <v>340.1469018644827</v>
       </c>
       <c r="H23" t="n">
         <v>261.5478446949906</v>
       </c>
       <c r="I23" t="n">
-        <v>124.0593965116551</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>56.17679035245423</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>127.3309385949647</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>176.4656924935985</v>
       </c>
       <c r="V23" t="n">
         <v>252.8962872068895</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>274.3849974541676</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>311.3819673928082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2409,13 @@
         <v>70.21324113013848</v>
       </c>
       <c r="G24" t="n">
-        <v>62.32710430815597</v>
+        <v>62.32710430815596</v>
       </c>
       <c r="H24" t="n">
         <v>35.82994496814567</v>
       </c>
       <c r="I24" t="n">
-        <v>9.016685729823891</v>
+        <v>9.016685729823893</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>15.34041037337951</v>
+        <v>15.34041037337952</v>
       </c>
       <c r="S24" t="n">
-        <v>93.84706764185428</v>
+        <v>93.84706764185412</v>
       </c>
       <c r="T24" t="n">
         <v>124.6620652259941</v>
       </c>
       <c r="U24" t="n">
-        <v>151.0748554498473</v>
+        <v>151.0748554498475</v>
       </c>
       <c r="V24" t="n">
         <v>157.9446158861799</v>
@@ -2476,25 +2476,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>43.86876912246777</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>73.75950175496696</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>71.57799138332378</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>70.56507675968585</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>93.00049925422285</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>86.17529536702389</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>76.54945597313426</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>117.9729798240058</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>152.5148985717129</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>211.4557212473733</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>177.2816720605826</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>143.7286820888494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>307.8778704002352</v>
       </c>
       <c r="C26" t="n">
-        <v>290.4169205077621</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>332.020074478466</v>
       </c>
       <c r="G26" t="n">
-        <v>340.1469018644827</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>10.50887646116398</v>
       </c>
       <c r="I26" t="n">
         <v>124.0593965116551</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>56.17679035245423</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>127.3309385949647</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>53.8522021468882</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>294.8751294152236</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>56.34948575567445</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>92.39084983538244</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>73.75950175496696</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>71.57799138332378</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.56507675968585</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>211.4557212473733</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>177.2816720605826</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>211.6670270733456</v>
       </c>
       <c r="X28" t="n">
-        <v>150.8536841257917</v>
+        <v>58.82085132237322</v>
       </c>
       <c r="Y28" t="n">
-        <v>143.7286820888494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>137.5658203555835</v>
       </c>
       <c r="D29" t="n">
-        <v>279.8270703574375</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>307.0743988090164</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>332.020074478466</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>340.1469018644827</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.17679035245423</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,19 +2846,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>176.4656924935985</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6782391613221</v>
+        <v>252.8962872068895</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>274.3849974541676</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>294.8751294152236</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>311.3819673928082</v>
       </c>
     </row>
     <row r="30">
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>92.39084983538244</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>73.75950175496696</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.00049925422285</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>96.38941349993203</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>146.8165045175556</v>
+        <v>83.58762481124286</v>
       </c>
       <c r="T31" t="n">
-        <v>13.13982075276534</v>
+        <v>152.5148985717129</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>211.4557212473733</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>211.6670270733456</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>143.7286820888494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3029,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>290.4169205077621</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>279.8270703574375</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>307.0743988090164</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>332.020074478466</v>
       </c>
       <c r="G32" t="n">
-        <v>340.1469018644827</v>
+        <v>10.04189148057375</v>
       </c>
       <c r="H32" t="n">
-        <v>261.5478446949906</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>124.0593965116551</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>42.50172764828848</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>127.3309385949647</v>
@@ -3083,7 +3083,7 @@
         <v>146.9272219450121</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>176.4656924935985</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>294.8751294152236</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>35.82994496814567</v>
       </c>
       <c r="I33" t="n">
-        <v>9.016685729822484</v>
+        <v>9.016685729822143</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>15.34041037337937</v>
+        <v>15.34041037337951</v>
       </c>
       <c r="S33" t="n">
-        <v>93.84706764185428</v>
+        <v>93.84706764185412</v>
       </c>
       <c r="T33" t="n">
         <v>124.6620652259941</v>
       </c>
       <c r="U33" t="n">
-        <v>151.0748554498475</v>
+        <v>151.0748554498473</v>
       </c>
       <c r="V33" t="n">
         <v>157.9446158861799</v>
@@ -3196,19 +3196,19 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>70.56507675968585</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>93.00049925422285</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>86.17529536702389</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>76.54945597313426</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>8.99343379539741</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>152.5148985717129</v>
+        <v>112.4857893068374</v>
       </c>
       <c r="U34" t="n">
         <v>211.4557212473733</v>
       </c>
       <c r="V34" t="n">
-        <v>83.58762481124278</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>211.6670270733456</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>290.4169205077621</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>86.36684978293265</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>322.1238511850647</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>261.5478446949906</v>
       </c>
       <c r="I35" t="n">
         <v>124.0593965116551</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>56.17679035245423</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>146.9272219450121</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>252.8962872068895</v>
       </c>
       <c r="W35" t="n">
-        <v>274.3849974541676</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>249.8549598126062</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>311.3819673928082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>91.67721238662195</v>
       </c>
       <c r="C36" t="n">
         <v>97.85252772507035</v>
@@ -3354,13 +3354,13 @@
         <v>82.78910919215555</v>
       </c>
       <c r="F36" t="n">
-        <v>70.21324113013848</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>62.32710430815596</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>35.82994496814566</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>9.016685729823893</v>
@@ -3399,19 +3399,19 @@
         <v>124.6620652259941</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>151.0748554498473</v>
       </c>
       <c r="V36" t="n">
         <v>157.9446158861799</v>
       </c>
       <c r="W36" t="n">
-        <v>176.8390118976742</v>
+        <v>91.56085931238789</v>
       </c>
       <c r="X36" t="n">
         <v>130.9170139402321</v>
       </c>
       <c r="Y36" t="n">
-        <v>119.9303493588018</v>
+        <v>130.826724514059</v>
       </c>
     </row>
     <row r="37">
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>58.82085132237307</v>
       </c>
       <c r="U37" t="n">
-        <v>119.4228884439547</v>
+        <v>211.4557212473733</v>
       </c>
       <c r="V37" t="n">
         <v>177.2816720605826</v>
@@ -3487,7 +3487,7 @@
         <v>211.6670270733456</v>
       </c>
       <c r="X37" t="n">
-        <v>150.8536841257917</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>307.0743988090164</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>322.1238511850647</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>50.836393224308</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>56.17679035245423</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>274.3849974541676</v>
+        <v>267.5872147244849</v>
       </c>
       <c r="X38" t="n">
-        <v>294.8751294152236</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>311.3819673928082</v>
       </c>
     </row>
     <row r="39">
@@ -3585,22 +3585,22 @@
         <v>97.85252772507035</v>
       </c>
       <c r="D39" t="n">
-        <v>72.58909430139336</v>
+        <v>16.78963232993053</v>
       </c>
       <c r="E39" t="n">
-        <v>82.78910919215555</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>70.21324113013848</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>62.32710430815596</v>
       </c>
       <c r="H39" t="n">
-        <v>35.82994496814566</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9.016685729823893</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>15.34041037337952</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>93.84706764185428</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>124.6620652259941</v>
       </c>
       <c r="U39" t="n">
         <v>151.0748554498473</v>
@@ -3642,7 +3642,7 @@
         <v>157.9446158861799</v>
       </c>
       <c r="W39" t="n">
-        <v>157.0401121471757</v>
+        <v>176.8390118976742</v>
       </c>
       <c r="X39" t="n">
         <v>130.9170139402321</v>
@@ -3740,25 +3740,25 @@
         <v>307.8778704002352</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>290.4169205077621</v>
       </c>
       <c r="D41" t="n">
-        <v>279.8270703574375</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
         <v>322.1238511850647</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>261.5478446949906</v>
       </c>
       <c r="I41" t="n">
-        <v>65.88445228209414</v>
+        <v>68.13175489094648</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>274.3849974541676</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>63.62021401858289</v>
+        <v>91.67721238662195</v>
       </c>
       <c r="C42" t="n">
         <v>97.85252772507035</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>72.58909430139336</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>21.86805271007273</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>62.32710430815596</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>35.82994496814566</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>9.016685729823894</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>15.34041037337952</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>93.84706764185428</v>
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>92.39084983538244</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>70.56507675968585</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.54945597313426</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>96.38941349993203</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>146.8165045175556</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>152.5148985717129</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>186.9549991413397</v>
+        <v>107.3206459746781</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>177.2816720605826</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>211.6670270733456</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.1238511850647</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>322.1238511850647</v>
       </c>
       <c r="D44" t="n">
-        <v>322.1238511850647</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>32.40502436696082</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>223.4961139363259</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>131.0327616156996</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>322.1238511850647</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4056,22 +4056,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.1830755714014</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>110.6859162313911</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>168.7030389050997</v>
       </c>
       <c r="T45" t="n">
-        <v>199.5180364892395</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9308267130926</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>192.1408767847622</v>
       </c>
       <c r="W45" t="n">
-        <v>198.9105871310655</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>171.2453847631774</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>225.5370812097589</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.29169644658144</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.7186438601369</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>485.167420504237</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.7186438601369</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>557.2375949899332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>557.2375949899332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>408.3031853286819</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>725.4529320100012</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V4" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>555.4877027295624</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>318.1864051113748</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.6161971483371</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C8" t="n">
-        <v>728.6161971483371</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D8" t="n">
-        <v>485.167420504237</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E8" t="n">
-        <v>485.167420504237</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F8" t="n">
-        <v>241.7186438601369</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U8" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V8" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W8" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X8" t="n">
-        <v>728.6161971483371</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y8" t="n">
-        <v>728.6161971483371</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>362.4348659156472</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="C9" t="n">
-        <v>362.4348659156472</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="D9" t="n">
-        <v>362.4348659156472</v>
+        <v>312.3122535893286</v>
       </c>
       <c r="E9" t="n">
-        <v>362.4348659156472</v>
+        <v>153.0747985838731</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,13 +4884,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4908,25 +4908,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W9" t="n">
-        <v>778.0466648861338</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X9" t="n">
-        <v>570.195164680601</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.4348659156472</v>
+        <v>461.2466632505798</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
         <v>19.28114311021272</v>
@@ -4999,13 +4999,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>226.6945220088461</v>
+        <v>676.5251630141278</v>
       </c>
       <c r="C11" t="n">
-        <v>226.6945220088461</v>
+        <v>676.5251630141278</v>
       </c>
       <c r="D11" t="n">
-        <v>226.6945220088461</v>
+        <v>676.5251630141278</v>
       </c>
       <c r="E11" t="n">
-        <v>226.6945220088461</v>
+        <v>676.5251630141278</v>
       </c>
       <c r="F11" t="n">
-        <v>226.6945220088461</v>
+        <v>351.1475355544665</v>
       </c>
       <c r="G11" t="n">
-        <v>226.6945220088461</v>
+        <v>25.76990809480517</v>
       </c>
       <c r="H11" t="n">
-        <v>226.6945220088461</v>
+        <v>25.76990809480517</v>
       </c>
       <c r="I11" t="n">
         <v>25.76990809480517</v>
       </c>
       <c r="J11" t="n">
-        <v>39.13622053391032</v>
+        <v>39.1362205339102</v>
       </c>
       <c r="K11" t="n">
         <v>179.9136622687497</v>
@@ -5051,7 +5051,7 @@
         <v>675.9398089279861</v>
       </c>
       <c r="N11" t="n">
-        <v>934.7648279181512</v>
+        <v>934.764827918151</v>
       </c>
       <c r="O11" t="n">
         <v>1133.97831610647</v>
@@ -5072,19 +5072,19 @@
         <v>1288.495404740259</v>
       </c>
       <c r="U11" t="n">
-        <v>1202.82740438783</v>
+        <v>1034.635138319204</v>
       </c>
       <c r="V11" t="n">
-        <v>877.4497769281687</v>
+        <v>1001.902790473789</v>
       </c>
       <c r="W11" t="n">
-        <v>552.0721494685074</v>
+        <v>1001.902790473789</v>
       </c>
       <c r="X11" t="n">
-        <v>552.0721494685074</v>
+        <v>1001.902790473789</v>
       </c>
       <c r="Y11" t="n">
-        <v>226.6945220088461</v>
+        <v>676.5251630141278</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>329.8310748115982</v>
+        <v>494.1022307956867</v>
       </c>
       <c r="C12" t="n">
-        <v>329.8310748115982</v>
+        <v>319.6492015145596</v>
       </c>
       <c r="D12" t="n">
-        <v>329.8310748115982</v>
+        <v>172.3044660679202</v>
       </c>
       <c r="E12" t="n">
         <v>172.3044660679202</v>
@@ -5124,46 +5124,46 @@
         <v>191.0436932249887</v>
       </c>
       <c r="L12" t="n">
-        <v>191.0436932249887</v>
+        <v>455.4946692358517</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9463058982028</v>
+        <v>683.0479732437439</v>
       </c>
       <c r="N12" t="n">
-        <v>699.3061895662097</v>
+        <v>1001.950585916958</v>
       </c>
       <c r="O12" t="n">
-        <v>985.8510083895104</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="P12" t="n">
-        <v>1198.825420055276</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="Q12" t="n">
         <v>1288.495404740259</v>
       </c>
       <c r="R12" t="n">
-        <v>1197.387948541648</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="S12" t="n">
-        <v>1026.980838536496</v>
+        <v>1118.088294735107</v>
       </c>
       <c r="T12" t="n">
-        <v>1026.980838536496</v>
+        <v>916.5549245439564</v>
       </c>
       <c r="U12" t="n">
-        <v>1026.980838536496</v>
+        <v>916.5549245439564</v>
       </c>
       <c r="V12" t="n">
-        <v>791.8287303047537</v>
+        <v>916.5549245439564</v>
       </c>
       <c r="W12" t="n">
-        <v>537.5913735765521</v>
+        <v>662.3175678157547</v>
       </c>
       <c r="X12" t="n">
-        <v>537.5913735765521</v>
+        <v>662.3175678157547</v>
       </c>
       <c r="Y12" t="n">
-        <v>329.8310748115982</v>
+        <v>662.3175678157547</v>
       </c>
     </row>
     <row r="13">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>897.9908840922728</v>
+        <v>1066.027426859225</v>
       </c>
       <c r="C14" t="n">
-        <v>897.9908840922728</v>
+        <v>1066.027426859225</v>
       </c>
       <c r="D14" t="n">
-        <v>615.3372776706187</v>
+        <v>1066.027426859225</v>
       </c>
       <c r="E14" t="n">
-        <v>615.3372776706187</v>
+        <v>1066.027426859225</v>
       </c>
       <c r="F14" t="n">
-        <v>289.9596502109574</v>
+        <v>740.6497993995633</v>
       </c>
       <c r="G14" t="n">
-        <v>289.9596502109574</v>
+        <v>415.2721719399019</v>
       </c>
       <c r="H14" t="n">
-        <v>25.76990809480518</v>
+        <v>151.0824298237498</v>
       </c>
       <c r="I14" t="n">
         <v>25.76990809480518</v>
       </c>
       <c r="J14" t="n">
-        <v>39.13622053391038</v>
+        <v>39.13622053391032</v>
       </c>
       <c r="K14" t="n">
-        <v>179.9136622687499</v>
+        <v>179.9136622687497</v>
       </c>
       <c r="L14" t="n">
-        <v>406.8371546759693</v>
+        <v>406.837154675969</v>
       </c>
       <c r="M14" t="n">
-        <v>675.9398089279864</v>
+        <v>675.9398089279862</v>
       </c>
       <c r="N14" t="n">
-        <v>934.7648279181515</v>
+        <v>934.7648279181512</v>
       </c>
       <c r="O14" t="n">
         <v>1133.97831610647</v>
@@ -5300,28 +5300,28 @@
         <v>1288.495404740259</v>
       </c>
       <c r="R14" t="n">
-        <v>1288.495404740259</v>
+        <v>1231.751172061012</v>
       </c>
       <c r="S14" t="n">
-        <v>1195.844550168256</v>
+        <v>1231.751172061012</v>
       </c>
       <c r="T14" t="n">
-        <v>1195.844550168256</v>
+        <v>1083.33983676302</v>
       </c>
       <c r="U14" t="n">
-        <v>1195.844550168256</v>
+        <v>1083.33983676302</v>
       </c>
       <c r="V14" t="n">
-        <v>1195.844550168256</v>
+        <v>1083.33983676302</v>
       </c>
       <c r="W14" t="n">
-        <v>1195.844550168256</v>
+        <v>1083.33983676302</v>
       </c>
       <c r="X14" t="n">
-        <v>897.9908840922728</v>
+        <v>1083.33983676302</v>
       </c>
       <c r="Y14" t="n">
-        <v>897.9908840922728</v>
+        <v>1066.027426859225</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>397.7806182430146</v>
+        <v>279.4662713257099</v>
       </c>
       <c r="C15" t="n">
-        <v>298.939681146984</v>
+        <v>279.4662713257099</v>
       </c>
       <c r="D15" t="n">
-        <v>225.617363670829</v>
+        <v>279.4662713257099</v>
       </c>
       <c r="E15" t="n">
-        <v>141.9920008504699</v>
+        <v>195.8409085053507</v>
       </c>
       <c r="F15" t="n">
-        <v>71.06953506245119</v>
+        <v>124.9184427173321</v>
       </c>
       <c r="G15" t="n">
-        <v>71.06953506245119</v>
+        <v>61.96177169899272</v>
       </c>
       <c r="H15" t="n">
-        <v>34.87767145826366</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="I15" t="n">
         <v>25.76990809480518</v>
@@ -5358,49 +5358,49 @@
         <v>40.03741253212588</v>
       </c>
       <c r="K15" t="n">
-        <v>40.03741253212588</v>
+        <v>191.0436932249887</v>
       </c>
       <c r="L15" t="n">
-        <v>61.50096421978174</v>
+        <v>455.4946692358517</v>
       </c>
       <c r="M15" t="n">
-        <v>380.4035768929958</v>
+        <v>774.3972819090659</v>
       </c>
       <c r="N15" t="n">
-        <v>699.3061895662099</v>
+        <v>1001.950585916958</v>
       </c>
       <c r="O15" t="n">
-        <v>985.8510083895106</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="P15" t="n">
-        <v>1198.825420055276</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="Q15" t="n">
         <v>1288.495404740259</v>
       </c>
       <c r="R15" t="n">
-        <v>1273.000040726744</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="S15" t="n">
-        <v>1178.205022906689</v>
+        <v>1193.700386920204</v>
       </c>
       <c r="T15" t="n">
-        <v>1052.283744900635</v>
+        <v>1067.779108914149</v>
       </c>
       <c r="U15" t="n">
-        <v>899.6828808098799</v>
+        <v>915.1782448233946</v>
       </c>
       <c r="V15" t="n">
-        <v>740.1428647632335</v>
+        <v>755.6382287767483</v>
       </c>
       <c r="W15" t="n">
-        <v>561.5176002201283</v>
+        <v>636.4571307609756</v>
       </c>
       <c r="X15" t="n">
-        <v>529.9288248228722</v>
+        <v>504.2177227405392</v>
       </c>
       <c r="Y15" t="n">
-        <v>397.7806182430146</v>
+        <v>372.0695161606816</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>324.00693020045</v>
+        <v>130.8852369533126</v>
       </c>
       <c r="C16" t="n">
-        <v>278.0334145401916</v>
+        <v>37.56114621050203</v>
       </c>
       <c r="D16" t="n">
-        <v>278.0334145401916</v>
+        <v>37.56114621050203</v>
       </c>
       <c r="E16" t="n">
-        <v>278.0334145401916</v>
+        <v>37.56114621050203</v>
       </c>
       <c r="F16" t="n">
-        <v>206.7555592273777</v>
+        <v>37.56114621050203</v>
       </c>
       <c r="G16" t="n">
-        <v>112.8156609907889</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="H16" t="n">
         <v>25.76990809480518</v>
@@ -5437,7 +5437,7 @@
         <v>25.76990809480518</v>
       </c>
       <c r="K16" t="n">
-        <v>93.30172962852403</v>
+        <v>93.30172962852404</v>
       </c>
       <c r="L16" t="n">
         <v>214.5210844568811</v>
@@ -5461,25 +5461,25 @@
         <v>691.6540209267997</v>
       </c>
       <c r="S16" t="n">
-        <v>691.6540209267997</v>
+        <v>543.3545214141172</v>
       </c>
       <c r="T16" t="n">
-        <v>537.5985678240594</v>
+        <v>389.2990683113769</v>
       </c>
       <c r="U16" t="n">
-        <v>324.00693020045</v>
+        <v>389.2990683113769</v>
       </c>
       <c r="V16" t="n">
-        <v>324.00693020045</v>
+        <v>389.2990683113769</v>
       </c>
       <c r="W16" t="n">
-        <v>324.00693020045</v>
+        <v>389.2990683113769</v>
       </c>
       <c r="X16" t="n">
-        <v>324.00693020045</v>
+        <v>236.9216095984559</v>
       </c>
       <c r="Y16" t="n">
-        <v>324.00693020045</v>
+        <v>236.9216095984559</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>500.1985365905964</v>
+        <v>954.5946089759943</v>
       </c>
       <c r="C17" t="n">
-        <v>500.1985365905964</v>
+        <v>954.5946089759943</v>
       </c>
       <c r="D17" t="n">
-        <v>500.1985365905964</v>
+        <v>954.5946089759943</v>
       </c>
       <c r="E17" t="n">
-        <v>500.1985365905964</v>
+        <v>954.5946089759943</v>
       </c>
       <c r="F17" t="n">
-        <v>415.2721719399019</v>
+        <v>629.2169815163329</v>
       </c>
       <c r="G17" t="n">
-        <v>415.2721719399019</v>
+        <v>303.8393540566715</v>
       </c>
       <c r="H17" t="n">
-        <v>151.0824298237498</v>
+        <v>39.64961194051938</v>
       </c>
       <c r="I17" t="n">
         <v>25.76990809480518</v>
       </c>
       <c r="J17" t="n">
-        <v>39.13622053391023</v>
+        <v>39.13622053391032</v>
       </c>
       <c r="K17" t="n">
         <v>179.9136622687497</v>
@@ -5546,19 +5546,19 @@
         <v>1231.751172061012</v>
       </c>
       <c r="U17" t="n">
-        <v>1053.502997825054</v>
+        <v>1231.751172061012</v>
       </c>
       <c r="V17" t="n">
-        <v>798.0522026665799</v>
+        <v>1231.751172061012</v>
       </c>
       <c r="W17" t="n">
-        <v>798.0522026665799</v>
+        <v>954.5946089759943</v>
       </c>
       <c r="X17" t="n">
-        <v>500.1985365905964</v>
+        <v>954.5946089759943</v>
       </c>
       <c r="Y17" t="n">
-        <v>500.1985365905964</v>
+        <v>954.5946089759943</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>460.737289261354</v>
+        <v>451.6295258978955</v>
       </c>
       <c r="C18" t="n">
-        <v>361.8963521653233</v>
+        <v>352.7885888018648</v>
       </c>
       <c r="D18" t="n">
-        <v>288.5740346891684</v>
+        <v>279.4662713257099</v>
       </c>
       <c r="E18" t="n">
-        <v>204.9486718688092</v>
+        <v>195.8409085053507</v>
       </c>
       <c r="F18" t="n">
-        <v>134.0262060807906</v>
+        <v>124.9184427173321</v>
       </c>
       <c r="G18" t="n">
-        <v>71.06953506245119</v>
+        <v>61.96177169899272</v>
       </c>
       <c r="H18" t="n">
-        <v>34.87767145826366</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="I18" t="n">
         <v>25.76990809480518</v>
       </c>
       <c r="J18" t="n">
-        <v>25.76990809480518</v>
+        <v>40.03741253212588</v>
       </c>
       <c r="K18" t="n">
-        <v>25.76990809480518</v>
+        <v>40.03741253212588</v>
       </c>
       <c r="L18" t="n">
-        <v>61.50096421978174</v>
+        <v>304.4883885429889</v>
       </c>
       <c r="M18" t="n">
-        <v>380.4035768929958</v>
+        <v>593.3779885587609</v>
       </c>
       <c r="N18" t="n">
-        <v>699.3061895662099</v>
+        <v>912.280601231975</v>
       </c>
       <c r="O18" t="n">
-        <v>985.8510083895106</v>
+        <v>1198.825420055276</v>
       </c>
       <c r="P18" t="n">
         <v>1198.825420055276</v>
@@ -5625,19 +5625,19 @@
         <v>1067.779108914149</v>
       </c>
       <c r="U18" t="n">
-        <v>1067.779108914149</v>
+        <v>915.1782448233946</v>
       </c>
       <c r="V18" t="n">
-        <v>908.2390928675031</v>
+        <v>915.1782448233946</v>
       </c>
       <c r="W18" t="n">
-        <v>729.6138283243979</v>
+        <v>736.5529802802894</v>
       </c>
       <c r="X18" t="n">
-        <v>597.3744203039614</v>
+        <v>604.3135722598529</v>
       </c>
       <c r="Y18" t="n">
-        <v>465.2262137241038</v>
+        <v>544.2327707328672</v>
       </c>
     </row>
     <row r="19">
@@ -5698,19 +5698,19 @@
         <v>691.6540209267997</v>
       </c>
       <c r="S19" t="n">
-        <v>572.4893948419455</v>
+        <v>691.6540209267997</v>
       </c>
       <c r="T19" t="n">
-        <v>418.4339417392051</v>
+        <v>537.5985678240594</v>
       </c>
       <c r="U19" t="n">
-        <v>204.8423041155957</v>
+        <v>537.5985678240594</v>
       </c>
       <c r="V19" t="n">
-        <v>25.76990809480518</v>
+        <v>358.5261718032689</v>
       </c>
       <c r="W19" t="n">
-        <v>25.76990809480518</v>
+        <v>144.7210939514046</v>
       </c>
       <c r="X19" t="n">
         <v>25.76990809480518</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>292.9494714080595</v>
+        <v>279.7862061848252</v>
       </c>
       <c r="C20" t="n">
-        <v>25.76990809480518</v>
+        <v>279.7862061848252</v>
       </c>
       <c r="D20" t="n">
-        <v>25.76990809480518</v>
+        <v>279.7862061848252</v>
       </c>
       <c r="E20" t="n">
-        <v>25.76990809480518</v>
+        <v>279.7862061848252</v>
       </c>
       <c r="F20" t="n">
         <v>25.76990809480518</v>
@@ -5756,7 +5756,7 @@
         <v>179.9136622687497</v>
       </c>
       <c r="L20" t="n">
-        <v>406.8371546759689</v>
+        <v>406.837154675969</v>
       </c>
       <c r="M20" t="n">
         <v>675.9398089279862</v>
@@ -5780,22 +5780,22 @@
         <v>1288.495404740259</v>
       </c>
       <c r="T20" t="n">
-        <v>1140.084069442267</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="U20" t="n">
-        <v>1140.084069442267</v>
+        <v>1110.247230504301</v>
       </c>
       <c r="V20" t="n">
-        <v>884.6332742837926</v>
+        <v>854.7964353458265</v>
       </c>
       <c r="W20" t="n">
-        <v>607.4767111987749</v>
+        <v>577.6398722608087</v>
       </c>
       <c r="X20" t="n">
-        <v>607.4767111987749</v>
+        <v>279.7862061848252</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.9494714080595</v>
+        <v>279.7862061848252</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>312.625349633349</v>
+        <v>204.5267407848626</v>
       </c>
       <c r="C21" t="n">
-        <v>213.7844125373184</v>
+        <v>204.5267407848626</v>
       </c>
       <c r="D21" t="n">
-        <v>140.4620950611634</v>
+        <v>204.5267407848626</v>
       </c>
       <c r="E21" t="n">
-        <v>140.4620950611634</v>
+        <v>120.9013779645035</v>
       </c>
       <c r="F21" t="n">
-        <v>69.53962927314477</v>
+        <v>120.9013779645035</v>
       </c>
       <c r="G21" t="n">
-        <v>69.53962927314477</v>
+        <v>71.06953506245119</v>
       </c>
       <c r="H21" t="n">
-        <v>33.34776566895723</v>
+        <v>34.87767145826366</v>
       </c>
       <c r="I21" t="n">
         <v>25.76990809480518</v>
       </c>
       <c r="J21" t="n">
-        <v>40.03741253212588</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="K21" t="n">
-        <v>191.0436932249887</v>
+        <v>176.776188787668</v>
       </c>
       <c r="L21" t="n">
-        <v>455.4946692358517</v>
+        <v>441.227164798531</v>
       </c>
       <c r="M21" t="n">
-        <v>756.6183804012795</v>
+        <v>441.227164798531</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.520993074494</v>
+        <v>760.1297774717451</v>
       </c>
       <c r="O21" t="n">
-        <v>1075.520993074494</v>
+        <v>1046.674596295046</v>
       </c>
       <c r="P21" t="n">
-        <v>1288.495404740259</v>
+        <v>1259.649007960811</v>
       </c>
       <c r="Q21" t="n">
         <v>1288.495404740259</v>
       </c>
       <c r="R21" t="n">
-        <v>1288.495404740259</v>
+        <v>1273.000040726744</v>
       </c>
       <c r="S21" t="n">
-        <v>1193.700386920204</v>
+        <v>1178.205022906689</v>
       </c>
       <c r="T21" t="n">
-        <v>1067.779108914149</v>
+        <v>1052.283744900635</v>
       </c>
       <c r="U21" t="n">
-        <v>915.1782448233946</v>
+        <v>899.6828808098799</v>
       </c>
       <c r="V21" t="n">
-        <v>755.6382287767483</v>
+        <v>740.1428647632335</v>
       </c>
       <c r="W21" t="n">
-        <v>577.0129642336431</v>
+        <v>561.5176002201283</v>
       </c>
       <c r="X21" t="n">
-        <v>444.7735562132066</v>
+        <v>429.2781921996918</v>
       </c>
       <c r="Y21" t="n">
-        <v>312.625349633349</v>
+        <v>297.1299856198343</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>622.6112919082641</v>
+        <v>291.9360243720516</v>
       </c>
       <c r="C22" t="n">
-        <v>622.6112919082641</v>
+        <v>291.9360243720516</v>
       </c>
       <c r="D22" t="n">
-        <v>622.6112919082641</v>
+        <v>291.9360243720516</v>
       </c>
       <c r="E22" t="n">
-        <v>622.6112919082641</v>
+        <v>284.0782420285234</v>
       </c>
       <c r="F22" t="n">
-        <v>622.6112919082641</v>
+        <v>284.0782420285234</v>
       </c>
       <c r="G22" t="n">
-        <v>622.6112919082641</v>
+        <v>190.1383437919346</v>
       </c>
       <c r="H22" t="n">
-        <v>622.6112919082641</v>
+        <v>103.0925908959509</v>
       </c>
       <c r="I22" t="n">
-        <v>622.6112919082641</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="J22" t="n">
-        <v>622.6112919082641</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="K22" t="n">
-        <v>690.143113441983</v>
+        <v>93.30172962852404</v>
       </c>
       <c r="L22" t="n">
-        <v>811.3624682703401</v>
+        <v>214.5210844568811</v>
       </c>
       <c r="M22" t="n">
-        <v>945.5319415199715</v>
+        <v>348.6905577065124</v>
       </c>
       <c r="N22" t="n">
-        <v>1083.707889609562</v>
+        <v>486.866505796103</v>
       </c>
       <c r="O22" t="n">
-        <v>1200.97666893256</v>
+        <v>604.135285119101</v>
       </c>
       <c r="P22" t="n">
-        <v>1288.495404740259</v>
+        <v>691.6540209267997</v>
       </c>
       <c r="Q22" t="n">
-        <v>1288.495404740259</v>
+        <v>691.6540209267997</v>
       </c>
       <c r="R22" t="n">
-        <v>1191.132360800934</v>
+        <v>594.2909769874744</v>
       </c>
       <c r="S22" t="n">
-        <v>1042.832861288251</v>
+        <v>445.991477474792</v>
       </c>
       <c r="T22" t="n">
-        <v>1042.832861288251</v>
+        <v>291.9360243720516</v>
       </c>
       <c r="U22" t="n">
-        <v>829.2412236646417</v>
+        <v>291.9360243720516</v>
       </c>
       <c r="V22" t="n">
-        <v>829.2412236646417</v>
+        <v>291.9360243720516</v>
       </c>
       <c r="W22" t="n">
-        <v>829.2412236646417</v>
+        <v>291.9360243720516</v>
       </c>
       <c r="X22" t="n">
-        <v>676.8637649517207</v>
+        <v>291.9360243720516</v>
       </c>
       <c r="Y22" t="n">
-        <v>622.6112919082641</v>
+        <v>291.9360243720516</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>923.2124722919152</v>
+        <v>653.7178650697711</v>
       </c>
       <c r="C23" t="n">
-        <v>923.2124722919152</v>
+        <v>653.7178650697711</v>
       </c>
       <c r="D23" t="n">
-        <v>640.5588658702611</v>
+        <v>638.7711660706024</v>
       </c>
       <c r="E23" t="n">
-        <v>640.5588658702611</v>
+        <v>638.7711660706024</v>
       </c>
       <c r="F23" t="n">
-        <v>640.5588658702611</v>
+        <v>638.7711660706024</v>
       </c>
       <c r="G23" t="n">
-        <v>420.5009586435038</v>
+        <v>295.1884369145592</v>
       </c>
       <c r="H23" t="n">
-        <v>156.3112165273516</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="I23" t="n">
         <v>30.99869479840703</v>
       </c>
       <c r="J23" t="n">
-        <v>118.4724187881251</v>
+        <v>118.472418788125</v>
       </c>
       <c r="K23" t="n">
         <v>259.2498605229645</v>
       </c>
       <c r="L23" t="n">
-        <v>520.0616667548359</v>
+        <v>486.1733529301837</v>
       </c>
       <c r="M23" t="n">
         <v>789.164321006853</v>
@@ -6005,7 +6005,7 @@
         <v>1321.31023973595</v>
       </c>
       <c r="P23" t="n">
-        <v>1527.767371580818</v>
+        <v>1453.659960030205</v>
       </c>
       <c r="Q23" t="n">
         <v>1549.934739920352</v>
@@ -6014,25 +6014,25 @@
         <v>1493.190507241105</v>
       </c>
       <c r="S23" t="n">
-        <v>1493.190507241105</v>
+        <v>1364.573397549221</v>
       </c>
       <c r="T23" t="n">
-        <v>1493.190507241105</v>
+        <v>1364.573397549221</v>
       </c>
       <c r="U23" t="n">
-        <v>1493.190507241105</v>
+        <v>1186.325223313263</v>
       </c>
       <c r="V23" t="n">
-        <v>1237.739712082631</v>
+        <v>930.8744281547888</v>
       </c>
       <c r="W23" t="n">
-        <v>1237.739712082631</v>
+        <v>653.7178650697711</v>
       </c>
       <c r="X23" t="n">
-        <v>1237.739712082631</v>
+        <v>653.7178650697711</v>
       </c>
       <c r="Y23" t="n">
-        <v>923.2124722919152</v>
+        <v>653.7178650697711</v>
       </c>
     </row>
     <row r="24">
@@ -6048,7 +6048,7 @@
         <v>367.1251388689252</v>
       </c>
       <c r="D24" t="n">
-        <v>293.8028213927703</v>
+        <v>293.8028213927702</v>
       </c>
       <c r="E24" t="n">
         <v>210.1774585724111</v>
@@ -6057,7 +6057,7 @@
         <v>139.2549927843924</v>
       </c>
       <c r="G24" t="n">
-        <v>76.29832176605304</v>
+        <v>76.29832176605306</v>
       </c>
       <c r="H24" t="n">
         <v>40.10645816186551</v>
@@ -6075,16 +6075,16 @@
         <v>460.7234559394536</v>
       </c>
       <c r="M24" t="n">
-        <v>666.8066613009985</v>
+        <v>821.3044932377248</v>
       </c>
       <c r="N24" t="n">
-        <v>1050.415509431285</v>
+        <v>960.7455247463026</v>
       </c>
       <c r="O24" t="n">
-        <v>1336.960328254586</v>
+        <v>1247.290343569603</v>
       </c>
       <c r="P24" t="n">
-        <v>1549.934739920352</v>
+        <v>1460.264755235369</v>
       </c>
       <c r="Q24" t="n">
         <v>1549.934739920352</v>
@@ -6096,7 +6096,7 @@
         <v>1439.644358086782</v>
       </c>
       <c r="T24" t="n">
-        <v>1313.723080080727</v>
+        <v>1313.723080080728</v>
       </c>
       <c r="U24" t="n">
         <v>1161.122215989973</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>551.702320671968</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="C25" t="n">
-        <v>507.3904326694753</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="D25" t="n">
-        <v>432.8858854422359</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="E25" t="n">
-        <v>360.5848840449392</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="F25" t="n">
-        <v>289.3070287321252</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="G25" t="n">
-        <v>195.3671304955365</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="H25" t="n">
-        <v>108.3213775995527</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="I25" t="n">
         <v>30.99869479840703</v>
@@ -6172,25 +6172,25 @@
         <v>696.8828076304017</v>
       </c>
       <c r="S25" t="n">
-        <v>696.8828076304017</v>
+        <v>577.7181815455473</v>
       </c>
       <c r="T25" t="n">
-        <v>696.8828076304017</v>
+        <v>423.662728442807</v>
       </c>
       <c r="U25" t="n">
-        <v>696.8828076304017</v>
+        <v>210.0710908191975</v>
       </c>
       <c r="V25" t="n">
-        <v>696.8828076304017</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="W25" t="n">
-        <v>696.8828076304017</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="X25" t="n">
-        <v>696.8828076304017</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="Y25" t="n">
-        <v>551.702320671968</v>
+        <v>30.99869479840703</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1438.794343456369</v>
+        <v>812.4762162734592</v>
       </c>
       <c r="C26" t="n">
-        <v>1145.443918701054</v>
+        <v>812.4762162734592</v>
       </c>
       <c r="D26" t="n">
-        <v>1145.443918701054</v>
+        <v>812.4762162734592</v>
       </c>
       <c r="E26" t="n">
-        <v>835.267758287906</v>
+        <v>502.3000558603113</v>
       </c>
       <c r="F26" t="n">
-        <v>499.8939456833948</v>
+        <v>166.9262432558001</v>
       </c>
       <c r="G26" t="n">
-        <v>156.3112165273516</v>
+        <v>166.9262432558001</v>
       </c>
       <c r="H26" t="n">
         <v>156.3112165273516</v>
@@ -6224,52 +6224,52 @@
         <v>30.99869479840703</v>
       </c>
       <c r="J26" t="n">
-        <v>44.3650072375121</v>
+        <v>118.472418788125</v>
       </c>
       <c r="K26" t="n">
-        <v>219.0307627970037</v>
+        <v>333.3572720735774</v>
       </c>
       <c r="L26" t="n">
-        <v>445.9542552042229</v>
+        <v>560.2807644807966</v>
       </c>
       <c r="M26" t="n">
-        <v>715.0569094562399</v>
+        <v>829.3834187328139</v>
       </c>
       <c r="N26" t="n">
-        <v>1047.989339997018</v>
+        <v>1088.208437722979</v>
       </c>
       <c r="O26" t="n">
-        <v>1321.31023973595</v>
+        <v>1287.421925911298</v>
       </c>
       <c r="P26" t="n">
-        <v>1527.767371580818</v>
+        <v>1493.879057756165</v>
       </c>
       <c r="Q26" t="n">
         <v>1549.934739920352</v>
       </c>
       <c r="R26" t="n">
-        <v>1493.190507241105</v>
+        <v>1549.934739920352</v>
       </c>
       <c r="S26" t="n">
-        <v>1493.190507241105</v>
+        <v>1421.317630228468</v>
       </c>
       <c r="T26" t="n">
-        <v>1493.190507241105</v>
+        <v>1421.317630228468</v>
       </c>
       <c r="U26" t="n">
-        <v>1438.794343456369</v>
+        <v>1421.317630228468</v>
       </c>
       <c r="V26" t="n">
-        <v>1438.794343456369</v>
+        <v>1421.317630228468</v>
       </c>
       <c r="W26" t="n">
-        <v>1438.794343456369</v>
+        <v>1421.317630228468</v>
       </c>
       <c r="X26" t="n">
-        <v>1438.794343456369</v>
+        <v>1123.463964152485</v>
       </c>
       <c r="Y26" t="n">
-        <v>1438.794343456369</v>
+        <v>1123.463964152485</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>30.99869479840703</v>
       </c>
       <c r="J27" t="n">
-        <v>45.26619923572773</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="K27" t="n">
-        <v>196.2724799285906</v>
+        <v>182.0049754912699</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5300509835095</v>
+        <v>446.4559515021329</v>
       </c>
       <c r="M27" t="n">
-        <v>790.1110882817807</v>
+        <v>807.0369888004041</v>
       </c>
       <c r="N27" t="n">
-        <v>1173.719936412068</v>
+        <v>1190.645836930691</v>
       </c>
       <c r="O27" t="n">
-        <v>1460.264755235369</v>
+        <v>1336.960328254586</v>
       </c>
       <c r="P27" t="n">
-        <v>1460.264755235369</v>
+        <v>1549.934739920352</v>
       </c>
       <c r="Q27" t="n">
         <v>1549.934739920352</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>342.4061894785677</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="C28" t="n">
-        <v>249.0820987357571</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="D28" t="n">
-        <v>174.5775515085178</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="E28" t="n">
-        <v>102.276550111221</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="F28" t="n">
         <v>30.99869479840703</v>
@@ -6415,19 +6415,19 @@
         <v>696.8828076304017</v>
       </c>
       <c r="U28" t="n">
-        <v>696.8828076304017</v>
+        <v>483.2911700067923</v>
       </c>
       <c r="V28" t="n">
-        <v>696.8828076304017</v>
+        <v>304.2187739860018</v>
       </c>
       <c r="W28" t="n">
-        <v>696.8828076304017</v>
+        <v>90.41369613413755</v>
       </c>
       <c r="X28" t="n">
-        <v>544.5053489174807</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="Y28" t="n">
-        <v>399.3248619590469</v>
+        <v>30.99869479840703</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1302.785003393763</v>
+        <v>169.954068894956</v>
       </c>
       <c r="C29" t="n">
-        <v>1302.785003393763</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="D29" t="n">
-        <v>1020.131396972109</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="E29" t="n">
-        <v>709.9552365589614</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="F29" t="n">
-        <v>374.5814239544502</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="G29" t="n">
         <v>30.99869479840703</v>
@@ -6461,52 +6461,52 @@
         <v>30.99869479840703</v>
       </c>
       <c r="J29" t="n">
-        <v>118.472418788125</v>
+        <v>44.3650072375121</v>
       </c>
       <c r="K29" t="n">
-        <v>333.3572720735773</v>
+        <v>185.1424489723516</v>
       </c>
       <c r="L29" t="n">
-        <v>560.2807644807965</v>
+        <v>486.1733529301837</v>
       </c>
       <c r="M29" t="n">
-        <v>829.3834187328138</v>
+        <v>755.2760071822008</v>
       </c>
       <c r="N29" t="n">
-        <v>1122.096751547631</v>
+        <v>1047.989339997018</v>
       </c>
       <c r="O29" t="n">
-        <v>1321.31023973595</v>
+        <v>1247.202828185337</v>
       </c>
       <c r="P29" t="n">
         <v>1453.659960030205</v>
       </c>
       <c r="Q29" t="n">
-        <v>1549.934739920351</v>
+        <v>1549.934739920352</v>
       </c>
       <c r="R29" t="n">
-        <v>1549.934739920351</v>
+        <v>1493.190507241105</v>
       </c>
       <c r="S29" t="n">
-        <v>1549.934739920351</v>
+        <v>1493.190507241105</v>
       </c>
       <c r="T29" t="n">
-        <v>1549.934739920351</v>
+        <v>1493.190507241105</v>
       </c>
       <c r="U29" t="n">
-        <v>1549.934739920351</v>
+        <v>1314.942333005147</v>
       </c>
       <c r="V29" t="n">
-        <v>1302.785003393763</v>
+        <v>1059.491537846673</v>
       </c>
       <c r="W29" t="n">
-        <v>1302.785003393763</v>
+        <v>782.3349747616548</v>
       </c>
       <c r="X29" t="n">
-        <v>1302.785003393763</v>
+        <v>484.4813086856714</v>
       </c>
       <c r="Y29" t="n">
-        <v>1302.785003393763</v>
+        <v>169.954068894956</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>465.9660759649553</v>
+        <v>465.9660759649558</v>
       </c>
       <c r="C30" t="n">
-        <v>367.1251388689246</v>
+        <v>367.1251388689251</v>
       </c>
       <c r="D30" t="n">
         <v>293.8028213927702</v>
@@ -6534,34 +6534,34 @@
         <v>76.29832176605305</v>
       </c>
       <c r="H30" t="n">
-        <v>40.1064581618655</v>
+        <v>40.10645816186551</v>
       </c>
       <c r="I30" t="n">
         <v>30.99869479840703</v>
       </c>
       <c r="J30" t="n">
-        <v>30.99869479840703</v>
+        <v>45.26619923572773</v>
       </c>
       <c r="K30" t="n">
-        <v>182.0049754912699</v>
+        <v>196.2724799285906</v>
       </c>
       <c r="L30" t="n">
-        <v>216.555639317744</v>
+        <v>306.2256240027273</v>
       </c>
       <c r="M30" t="n">
-        <v>577.1366766160152</v>
+        <v>666.8066613009985</v>
       </c>
       <c r="N30" t="n">
-        <v>960.7455247463022</v>
+        <v>1050.415509431285</v>
       </c>
       <c r="O30" t="n">
-        <v>1247.290343569603</v>
+        <v>1336.960328254586</v>
       </c>
       <c r="P30" t="n">
-        <v>1460.264755235368</v>
+        <v>1549.934739920352</v>
       </c>
       <c r="Q30" t="n">
-        <v>1549.934739920351</v>
+        <v>1549.934739920352</v>
       </c>
       <c r="R30" t="n">
         <v>1534.439375906837</v>
@@ -6570,22 +6570,22 @@
         <v>1439.644358086782</v>
       </c>
       <c r="T30" t="n">
-        <v>1313.723080080727</v>
+        <v>1313.723080080728</v>
       </c>
       <c r="U30" t="n">
-        <v>1161.122215989972</v>
+        <v>1161.122215989973</v>
       </c>
       <c r="V30" t="n">
         <v>1001.582199943326</v>
       </c>
       <c r="W30" t="n">
-        <v>822.9569354002208</v>
+        <v>822.956935400221</v>
       </c>
       <c r="X30" t="n">
-        <v>690.7175273797843</v>
+        <v>690.7175273797845</v>
       </c>
       <c r="Y30" t="n">
-        <v>558.5693207999269</v>
+        <v>558.5693207999275</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>292.7672310050457</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="C31" t="n">
-        <v>199.4431402622351</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="D31" t="n">
-        <v>124.9385930349958</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="E31" t="n">
-        <v>124.9385930349958</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="F31" t="n">
-        <v>124.9385930349958</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="G31" t="n">
         <v>30.99869479840703</v>
@@ -6643,28 +6643,28 @@
         <v>696.8828076304017</v>
       </c>
       <c r="R31" t="n">
-        <v>599.5197636910764</v>
+        <v>696.8828076304017</v>
       </c>
       <c r="S31" t="n">
-        <v>451.2202641783939</v>
+        <v>612.450863376621</v>
       </c>
       <c r="T31" t="n">
-        <v>437.9477179634794</v>
+        <v>458.3954102738807</v>
       </c>
       <c r="U31" t="n">
-        <v>437.9477179634794</v>
+        <v>244.8037726502713</v>
       </c>
       <c r="V31" t="n">
-        <v>437.9477179634794</v>
+        <v>244.8037726502713</v>
       </c>
       <c r="W31" t="n">
-        <v>437.9477179634794</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="X31" t="n">
-        <v>437.9477179634794</v>
+        <v>30.99869479840703</v>
       </c>
       <c r="Y31" t="n">
-        <v>292.7672310050457</v>
+        <v>30.99869479840703</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>932.1215908259177</v>
+        <v>1094.658120694517</v>
       </c>
       <c r="C32" t="n">
-        <v>638.7711660706024</v>
+        <v>1094.658120694517</v>
       </c>
       <c r="D32" t="n">
-        <v>638.7711660706024</v>
+        <v>812.0045142728629</v>
       </c>
       <c r="E32" t="n">
-        <v>638.7711660706024</v>
+        <v>501.828353859715</v>
       </c>
       <c r="F32" t="n">
-        <v>638.7711660706024</v>
+        <v>166.4545412552039</v>
       </c>
       <c r="G32" t="n">
-        <v>295.1884369145592</v>
+        <v>156.3112165273516</v>
       </c>
       <c r="H32" t="n">
-        <v>30.99869479840702</v>
+        <v>156.3112165273516</v>
       </c>
       <c r="I32" t="n">
         <v>30.99869479840702</v>
@@ -6701,13 +6701,13 @@
         <v>118.472418788125</v>
       </c>
       <c r="K32" t="n">
-        <v>293.138174347616</v>
+        <v>259.2498605229645</v>
       </c>
       <c r="L32" t="n">
-        <v>520.0616667548352</v>
+        <v>486.1733529301836</v>
       </c>
       <c r="M32" t="n">
-        <v>789.1643210068523</v>
+        <v>755.2760071822008</v>
       </c>
       <c r="N32" t="n">
         <v>1047.989339997017</v>
@@ -6722,28 +6722,28 @@
         <v>1549.934739920351</v>
       </c>
       <c r="R32" t="n">
-        <v>1507.003701891777</v>
+        <v>1549.934739920351</v>
       </c>
       <c r="S32" t="n">
-        <v>1378.386592199893</v>
+        <v>1421.317630228467</v>
       </c>
       <c r="T32" t="n">
-        <v>1229.975256901901</v>
+        <v>1272.906294930475</v>
       </c>
       <c r="U32" t="n">
-        <v>1229.975256901901</v>
+        <v>1094.658120694517</v>
       </c>
       <c r="V32" t="n">
-        <v>1229.975256901901</v>
+        <v>1094.658120694517</v>
       </c>
       <c r="W32" t="n">
-        <v>1229.975256901901</v>
+        <v>1094.658120694517</v>
       </c>
       <c r="X32" t="n">
-        <v>932.1215908259177</v>
+        <v>1094.658120694517</v>
       </c>
       <c r="Y32" t="n">
-        <v>932.1215908259177</v>
+        <v>1094.658120694517</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>465.9660759649549</v>
+        <v>465.9660759649547</v>
       </c>
       <c r="C33" t="n">
-        <v>367.1251388689243</v>
+        <v>367.1251388689241</v>
       </c>
       <c r="D33" t="n">
-        <v>293.8028213927694</v>
+        <v>293.8028213927685</v>
       </c>
       <c r="E33" t="n">
-        <v>210.1774585724096</v>
+        <v>210.1774585724093</v>
       </c>
       <c r="F33" t="n">
-        <v>139.254992784391</v>
+        <v>139.2549927843906</v>
       </c>
       <c r="G33" t="n">
-        <v>76.29832176605161</v>
+        <v>76.29832176605126</v>
       </c>
       <c r="H33" t="n">
-        <v>40.10645816186408</v>
+        <v>40.10645816186373</v>
       </c>
       <c r="I33" t="n">
         <v>30.99869479840702</v>
@@ -6789,10 +6789,10 @@
         <v>821.3044932377248</v>
       </c>
       <c r="N33" t="n">
-        <v>1204.913341368012</v>
+        <v>1050.415509431285</v>
       </c>
       <c r="O33" t="n">
-        <v>1491.458160191313</v>
+        <v>1336.960328254586</v>
       </c>
       <c r="P33" t="n">
         <v>1549.934739920351</v>
@@ -6816,13 +6816,13 @@
         <v>1001.582199943326</v>
       </c>
       <c r="W33" t="n">
-        <v>822.9569354002203</v>
+        <v>822.9569354002206</v>
       </c>
       <c r="X33" t="n">
-        <v>690.7175273797839</v>
+        <v>690.7175273797841</v>
       </c>
       <c r="Y33" t="n">
-        <v>558.5693207999266</v>
+        <v>558.5693207999263</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.99869479840702</v>
+        <v>1222.721092895896</v>
       </c>
       <c r="C34" t="n">
-        <v>30.99869479840702</v>
+        <v>1222.721092895896</v>
       </c>
       <c r="D34" t="n">
-        <v>30.99869479840702</v>
+        <v>1222.721092895896</v>
       </c>
       <c r="E34" t="n">
-        <v>30.99869479840702</v>
+        <v>1222.721092895896</v>
       </c>
       <c r="F34" t="n">
-        <v>30.99869479840702</v>
+        <v>1151.443237583082</v>
       </c>
       <c r="G34" t="n">
-        <v>30.99869479840702</v>
+        <v>1057.503339346493</v>
       </c>
       <c r="H34" t="n">
-        <v>30.99869479840702</v>
+        <v>970.4575864505093</v>
       </c>
       <c r="I34" t="n">
-        <v>30.99869479840702</v>
+        <v>893.1349036493637</v>
       </c>
       <c r="J34" t="n">
-        <v>30.99869479840702</v>
+        <v>884.0506270883561</v>
       </c>
       <c r="K34" t="n">
-        <v>98.53051633212588</v>
+        <v>951.582448622075</v>
       </c>
       <c r="L34" t="n">
-        <v>219.7498711604829</v>
+        <v>1072.801803450432</v>
       </c>
       <c r="M34" t="n">
-        <v>353.9193444101143</v>
+        <v>1206.971276700064</v>
       </c>
       <c r="N34" t="n">
-        <v>492.0952924997048</v>
+        <v>1345.147224789654</v>
       </c>
       <c r="O34" t="n">
-        <v>609.3640718227028</v>
+        <v>1462.416004112652</v>
       </c>
       <c r="P34" t="n">
-        <v>696.8828076304015</v>
+        <v>1549.934739920351</v>
       </c>
       <c r="Q34" t="n">
-        <v>696.8828076304015</v>
+        <v>1549.934739920351</v>
       </c>
       <c r="R34" t="n">
-        <v>696.8828076304015</v>
+        <v>1549.934739920351</v>
       </c>
       <c r="S34" t="n">
-        <v>696.8828076304015</v>
+        <v>1549.934739920351</v>
       </c>
       <c r="T34" t="n">
-        <v>542.8273545276612</v>
+        <v>1436.312730519505</v>
       </c>
       <c r="U34" t="n">
-        <v>329.2357169040519</v>
+        <v>1222.721092895896</v>
       </c>
       <c r="V34" t="n">
-        <v>244.8037726502713</v>
+        <v>1222.721092895896</v>
       </c>
       <c r="W34" t="n">
-        <v>30.99869479840702</v>
+        <v>1222.721092895896</v>
       </c>
       <c r="X34" t="n">
-        <v>30.99869479840702</v>
+        <v>1222.721092895896</v>
       </c>
       <c r="Y34" t="n">
-        <v>30.99869479840702</v>
+        <v>1222.721092895896</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>444.4328545790651</v>
+        <v>827.8890416045458</v>
       </c>
       <c r="C35" t="n">
-        <v>151.0824298237498</v>
+        <v>827.8890416045458</v>
       </c>
       <c r="D35" t="n">
-        <v>151.0824298237498</v>
+        <v>827.8890416045458</v>
       </c>
       <c r="E35" t="n">
-        <v>151.0824298237498</v>
+        <v>827.8890416045458</v>
       </c>
       <c r="F35" t="n">
-        <v>151.0824298237498</v>
+        <v>740.6497993995633</v>
       </c>
       <c r="G35" t="n">
-        <v>151.0824298237498</v>
+        <v>415.2721719399019</v>
       </c>
       <c r="H35" t="n">
         <v>151.0824298237498</v>
@@ -6941,13 +6941,13 @@
         <v>179.9136622687497</v>
       </c>
       <c r="L35" t="n">
-        <v>406.837154675969</v>
+        <v>406.8371546759689</v>
       </c>
       <c r="M35" t="n">
-        <v>675.9398089279862</v>
+        <v>675.9398089279861</v>
       </c>
       <c r="N35" t="n">
-        <v>934.7648279181512</v>
+        <v>934.7648279181511</v>
       </c>
       <c r="O35" t="n">
         <v>1133.97831610647</v>
@@ -6959,28 +6959,28 @@
         <v>1288.495404740259</v>
       </c>
       <c r="R35" t="n">
-        <v>1288.495404740259</v>
+        <v>1231.751172061012</v>
       </c>
       <c r="S35" t="n">
-        <v>1288.495404740259</v>
+        <v>1231.751172061012</v>
       </c>
       <c r="T35" t="n">
-        <v>1288.495404740259</v>
+        <v>1083.33983676302</v>
       </c>
       <c r="U35" t="n">
-        <v>1288.495404740259</v>
+        <v>1083.33983676302</v>
       </c>
       <c r="V35" t="n">
-        <v>1288.495404740259</v>
+        <v>827.8890416045458</v>
       </c>
       <c r="W35" t="n">
-        <v>1011.338841655241</v>
+        <v>827.8890416045458</v>
       </c>
       <c r="X35" t="n">
-        <v>758.9600943697803</v>
+        <v>827.8890416045458</v>
       </c>
       <c r="Y35" t="n">
-        <v>444.4328545790651</v>
+        <v>827.8890416045458</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>460.737289261354</v>
+        <v>290.6662888508084</v>
       </c>
       <c r="C36" t="n">
-        <v>361.8963521653233</v>
+        <v>191.8253517547777</v>
       </c>
       <c r="D36" t="n">
-        <v>288.5740346891684</v>
+        <v>118.5030342786228</v>
       </c>
       <c r="E36" t="n">
-        <v>204.9486718688092</v>
+        <v>34.87767145826366</v>
       </c>
       <c r="F36" t="n">
-        <v>134.0262060807906</v>
+        <v>34.87767145826366</v>
       </c>
       <c r="G36" t="n">
-        <v>71.06953506245119</v>
+        <v>34.87767145826366</v>
       </c>
       <c r="H36" t="n">
         <v>34.87767145826366</v>
@@ -7017,22 +7017,22 @@
         <v>40.03741253212588</v>
       </c>
       <c r="K36" t="n">
-        <v>191.0436932249887</v>
+        <v>99.69438455966684</v>
       </c>
       <c r="L36" t="n">
-        <v>455.4946692358517</v>
+        <v>364.1453605705299</v>
       </c>
       <c r="M36" t="n">
-        <v>774.3972819090659</v>
+        <v>683.047973243744</v>
       </c>
       <c r="N36" t="n">
-        <v>1093.29989458228</v>
+        <v>1001.950585916958</v>
       </c>
       <c r="O36" t="n">
-        <v>1198.825420055276</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="P36" t="n">
-        <v>1198.825420055276</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="Q36" t="n">
         <v>1288.495404740259</v>
@@ -7047,19 +7047,19 @@
         <v>1052.283744900635</v>
       </c>
       <c r="U36" t="n">
-        <v>1052.283744900635</v>
+        <v>899.6828808098799</v>
       </c>
       <c r="V36" t="n">
-        <v>892.7437288539884</v>
+        <v>740.1428647632335</v>
       </c>
       <c r="W36" t="n">
-        <v>714.1184643108832</v>
+        <v>647.6571482860741</v>
       </c>
       <c r="X36" t="n">
-        <v>581.8790562904467</v>
+        <v>515.4177402656376</v>
       </c>
       <c r="Y36" t="n">
-        <v>460.737289261354</v>
+        <v>383.2695336857801</v>
       </c>
     </row>
     <row r="37">
@@ -7123,16 +7123,16 @@
         <v>691.6540209267997</v>
       </c>
       <c r="T37" t="n">
-        <v>691.6540209267997</v>
+        <v>632.2390195910693</v>
       </c>
       <c r="U37" t="n">
-        <v>571.0248406803809</v>
+        <v>418.6473819674599</v>
       </c>
       <c r="V37" t="n">
-        <v>391.9524446595904</v>
+        <v>239.5749859466694</v>
       </c>
       <c r="W37" t="n">
-        <v>178.1473668077261</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="X37" t="n">
         <v>25.76990809480518</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>402.4974277002322</v>
+        <v>335.9460685079531</v>
       </c>
       <c r="C38" t="n">
-        <v>402.4974277002322</v>
+        <v>335.9460685079531</v>
       </c>
       <c r="D38" t="n">
-        <v>402.4974277002322</v>
+        <v>335.9460685079531</v>
       </c>
       <c r="E38" t="n">
-        <v>402.4974277002322</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="F38" t="n">
-        <v>402.4974277002322</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="G38" t="n">
-        <v>77.11980024057084</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="H38" t="n">
         <v>25.76990809480518</v>
@@ -7172,10 +7172,10 @@
         <v>25.76990809480518</v>
       </c>
       <c r="J38" t="n">
-        <v>39.13622053391032</v>
+        <v>39.13622053391035</v>
       </c>
       <c r="K38" t="n">
-        <v>179.9136622687497</v>
+        <v>179.9136622687498</v>
       </c>
       <c r="L38" t="n">
         <v>406.837154675969</v>
@@ -7196,28 +7196,28 @@
         <v>1288.495404740259</v>
       </c>
       <c r="R38" t="n">
-        <v>1288.495404740259</v>
+        <v>1231.751172061012</v>
       </c>
       <c r="S38" t="n">
-        <v>1288.495404740259</v>
+        <v>1231.751172061012</v>
       </c>
       <c r="T38" t="n">
-        <v>1288.495404740259</v>
+        <v>1231.751172061012</v>
       </c>
       <c r="U38" t="n">
-        <v>1288.495404740259</v>
+        <v>1231.751172061012</v>
       </c>
       <c r="V38" t="n">
-        <v>1288.495404740259</v>
+        <v>1231.751172061012</v>
       </c>
       <c r="W38" t="n">
-        <v>1011.338841655241</v>
+        <v>961.461056177694</v>
       </c>
       <c r="X38" t="n">
-        <v>713.4851755792577</v>
+        <v>961.461056177694</v>
       </c>
       <c r="Y38" t="n">
-        <v>713.4851755792577</v>
+        <v>646.9338163869786</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>460.737289261354</v>
+        <v>204.5267407848626</v>
       </c>
       <c r="C39" t="n">
-        <v>361.8963521653233</v>
+        <v>105.6858036888319</v>
       </c>
       <c r="D39" t="n">
-        <v>288.5740346891684</v>
+        <v>88.72657911314454</v>
       </c>
       <c r="E39" t="n">
-        <v>204.9486718688092</v>
+        <v>88.72657911314454</v>
       </c>
       <c r="F39" t="n">
-        <v>134.0262060807906</v>
+        <v>88.72657911314454</v>
       </c>
       <c r="G39" t="n">
-        <v>71.06953506245119</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="H39" t="n">
-        <v>34.87767145826366</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="I39" t="n">
         <v>25.76990809480518</v>
       </c>
       <c r="J39" t="n">
-        <v>40.03741253212588</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="K39" t="n">
-        <v>191.0436932249887</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="L39" t="n">
-        <v>455.4946692358517</v>
+        <v>290.2208841056682</v>
       </c>
       <c r="M39" t="n">
-        <v>666.9483957162965</v>
+        <v>609.1234967788823</v>
       </c>
       <c r="N39" t="n">
-        <v>985.8510083895106</v>
+        <v>928.0261094520964</v>
       </c>
       <c r="O39" t="n">
-        <v>985.8510083895106</v>
+        <v>1214.570928275397</v>
       </c>
       <c r="P39" t="n">
-        <v>1198.825420055276</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="Q39" t="n">
         <v>1288.495404740259</v>
       </c>
       <c r="R39" t="n">
-        <v>1288.495404740259</v>
+        <v>1273.000040726744</v>
       </c>
       <c r="S39" t="n">
-        <v>1288.495404740259</v>
+        <v>1178.205022906689</v>
       </c>
       <c r="T39" t="n">
-        <v>1288.495404740259</v>
+        <v>1052.283744900635</v>
       </c>
       <c r="U39" t="n">
-        <v>1135.894540649504</v>
+        <v>899.6828808098799</v>
       </c>
       <c r="V39" t="n">
-        <v>976.3545246028577</v>
+        <v>740.1428647632335</v>
       </c>
       <c r="W39" t="n">
-        <v>817.7281486966197</v>
+        <v>561.5176002201283</v>
       </c>
       <c r="X39" t="n">
-        <v>685.4887406761832</v>
+        <v>429.2781921996918</v>
       </c>
       <c r="Y39" t="n">
-        <v>553.3405340963257</v>
+        <v>297.1299856198343</v>
       </c>
     </row>
     <row r="40">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>700.3510937762157</v>
+        <v>977.5076568612335</v>
       </c>
       <c r="C41" t="n">
-        <v>700.3510937762157</v>
+        <v>684.1572321059182</v>
       </c>
       <c r="D41" t="n">
-        <v>417.6974873545616</v>
+        <v>684.1572321059182</v>
       </c>
       <c r="E41" t="n">
-        <v>417.6974873545616</v>
+        <v>684.1572321059182</v>
       </c>
       <c r="F41" t="n">
-        <v>92.31985989490028</v>
+        <v>684.1572321059182</v>
       </c>
       <c r="G41" t="n">
-        <v>92.31985989490028</v>
+        <v>358.7796046462568</v>
       </c>
       <c r="H41" t="n">
-        <v>92.31985989490028</v>
+        <v>94.58986253010465</v>
       </c>
       <c r="I41" t="n">
         <v>25.76990809480518</v>
       </c>
       <c r="J41" t="n">
-        <v>39.13622053391023</v>
+        <v>39.13622053391032</v>
       </c>
       <c r="K41" t="n">
         <v>179.9136622687497</v>
       </c>
       <c r="L41" t="n">
-        <v>406.8371546759689</v>
+        <v>406.837154675969</v>
       </c>
       <c r="M41" t="n">
         <v>675.9398089279862</v>
@@ -7448,13 +7448,13 @@
         <v>1288.495404740259</v>
       </c>
       <c r="W41" t="n">
-        <v>1011.338841655241</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="X41" t="n">
-        <v>1011.338841655241</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="Y41" t="n">
-        <v>1011.338841655241</v>
+        <v>1288.495404740259</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>232.8671431768212</v>
+        <v>220.0221047983773</v>
       </c>
       <c r="C42" t="n">
-        <v>134.0262060807906</v>
+        <v>121.1811677023467</v>
       </c>
       <c r="D42" t="n">
-        <v>134.0262060807906</v>
+        <v>47.85885022619178</v>
       </c>
       <c r="E42" t="n">
-        <v>134.0262060807906</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="F42" t="n">
-        <v>134.0262060807906</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="G42" t="n">
-        <v>71.06953506245119</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="H42" t="n">
-        <v>34.87767145826366</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="I42" t="n">
         <v>25.76990809480518</v>
@@ -7491,49 +7491,49 @@
         <v>40.03741253212588</v>
       </c>
       <c r="K42" t="n">
-        <v>151.1709489047646</v>
+        <v>191.0436932249887</v>
       </c>
       <c r="L42" t="n">
-        <v>151.1709489047646</v>
+        <v>191.0436932249887</v>
       </c>
       <c r="M42" t="n">
-        <v>470.0735615779787</v>
+        <v>509.9463058982028</v>
       </c>
       <c r="N42" t="n">
-        <v>788.9761742511928</v>
+        <v>699.3061895662099</v>
       </c>
       <c r="O42" t="n">
-        <v>1075.520993074494</v>
+        <v>985.8510083895106</v>
       </c>
       <c r="P42" t="n">
-        <v>1288.495404740259</v>
+        <v>1198.825420055276</v>
       </c>
       <c r="Q42" t="n">
         <v>1288.495404740259</v>
       </c>
       <c r="R42" t="n">
-        <v>1273.000040726744</v>
+        <v>1288.495404740259</v>
       </c>
       <c r="S42" t="n">
-        <v>1178.205022906689</v>
+        <v>1193.700386920204</v>
       </c>
       <c r="T42" t="n">
-        <v>1052.283744900635</v>
+        <v>1067.779108914149</v>
       </c>
       <c r="U42" t="n">
-        <v>899.6828808098799</v>
+        <v>915.1782448233946</v>
       </c>
       <c r="V42" t="n">
-        <v>740.1428647632335</v>
+        <v>755.6382287767483</v>
       </c>
       <c r="W42" t="n">
-        <v>561.5176002201283</v>
+        <v>577.0129642336431</v>
       </c>
       <c r="X42" t="n">
-        <v>429.2781921996918</v>
+        <v>444.7735562132066</v>
       </c>
       <c r="Y42" t="n">
-        <v>297.1299856198343</v>
+        <v>312.625349633349</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.0925908959509</v>
+        <v>190.3718541504297</v>
       </c>
       <c r="C43" t="n">
-        <v>103.0925908959509</v>
+        <v>97.04776340761917</v>
       </c>
       <c r="D43" t="n">
-        <v>103.0925908959509</v>
+        <v>97.04776340761917</v>
       </c>
       <c r="E43" t="n">
-        <v>103.0925908959509</v>
+        <v>97.04776340761917</v>
       </c>
       <c r="F43" t="n">
-        <v>103.0925908959509</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="G43" t="n">
-        <v>103.0925908959509</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="H43" t="n">
-        <v>103.0925908959509</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="I43" t="n">
         <v>25.76990809480518</v>
@@ -7570,7 +7570,7 @@
         <v>25.76990809480518</v>
       </c>
       <c r="K43" t="n">
-        <v>93.30172962852403</v>
+        <v>93.30172962852404</v>
       </c>
       <c r="L43" t="n">
         <v>214.5210844568811</v>
@@ -7591,28 +7591,28 @@
         <v>691.6540209267997</v>
       </c>
       <c r="R43" t="n">
-        <v>594.2909769874744</v>
+        <v>691.6540209267997</v>
       </c>
       <c r="S43" t="n">
-        <v>445.991477474792</v>
+        <v>691.6540209267997</v>
       </c>
       <c r="T43" t="n">
-        <v>291.9360243720516</v>
+        <v>691.6540209267997</v>
       </c>
       <c r="U43" t="n">
-        <v>103.0925908959509</v>
+        <v>583.2493280230844</v>
       </c>
       <c r="V43" t="n">
-        <v>103.0925908959509</v>
+        <v>404.1769320022939</v>
       </c>
       <c r="W43" t="n">
-        <v>103.0925908959509</v>
+        <v>190.3718541504297</v>
       </c>
       <c r="X43" t="n">
-        <v>103.0925908959509</v>
+        <v>190.3718541504297</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0925908959509</v>
+        <v>190.3718541504297</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>709.2575108595429</v>
+        <v>576.9011859951997</v>
       </c>
       <c r="C44" t="n">
-        <v>383.8798833998815</v>
+        <v>251.5235585355384</v>
       </c>
       <c r="D44" t="n">
-        <v>58.50225594022015</v>
+        <v>251.5235585355384</v>
       </c>
       <c r="E44" t="n">
-        <v>58.50225594022015</v>
+        <v>251.5235585355384</v>
       </c>
       <c r="F44" t="n">
-        <v>25.76990809480518</v>
+        <v>251.5235585355384</v>
       </c>
       <c r="G44" t="n">
         <v>25.76990809480518</v>
@@ -7646,16 +7646,16 @@
         <v>25.76990809480518</v>
       </c>
       <c r="J44" t="n">
-        <v>39.13622053391038</v>
+        <v>39.13622053391032</v>
       </c>
       <c r="K44" t="n">
         <v>179.9136622687497</v>
       </c>
       <c r="L44" t="n">
-        <v>406.8371546759689</v>
+        <v>406.837154675969</v>
       </c>
       <c r="M44" t="n">
-        <v>675.9398089279861</v>
+        <v>675.9398089279862</v>
       </c>
       <c r="N44" t="n">
         <v>934.7648279181512</v>
@@ -7670,28 +7670,28 @@
         <v>1288.495404740259</v>
       </c>
       <c r="R44" t="n">
-        <v>1288.495404740259</v>
+        <v>1156.139079875916</v>
       </c>
       <c r="S44" t="n">
-        <v>1288.495404740259</v>
+        <v>1156.139079875916</v>
       </c>
       <c r="T44" t="n">
-        <v>1288.495404740259</v>
+        <v>1156.139079875916</v>
       </c>
       <c r="U44" t="n">
-        <v>1034.635138319204</v>
+        <v>902.2788134548612</v>
       </c>
       <c r="V44" t="n">
-        <v>1034.635138319204</v>
+        <v>902.2788134548612</v>
       </c>
       <c r="W44" t="n">
-        <v>1034.635138319204</v>
+        <v>576.9011859951997</v>
       </c>
       <c r="X44" t="n">
-        <v>1034.635138319204</v>
+        <v>576.9011859951997</v>
       </c>
       <c r="Y44" t="n">
-        <v>1034.635138319204</v>
+        <v>576.9011859951997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>422.6771850606399</v>
+        <v>508.394802042639</v>
       </c>
       <c r="C45" t="n">
-        <v>422.6771850606399</v>
+        <v>333.941772761512</v>
       </c>
       <c r="D45" t="n">
-        <v>422.6771850606399</v>
+        <v>185.0073631002607</v>
       </c>
       <c r="E45" t="n">
-        <v>422.6771850606399</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="F45" t="n">
-        <v>276.1426270875248</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="G45" t="n">
-        <v>137.5738638840891</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="H45" t="n">
         <v>25.76990809480518</v>
@@ -7734,16 +7734,16 @@
         <v>304.4883885429889</v>
       </c>
       <c r="M45" t="n">
-        <v>623.391001216203</v>
+        <v>380.4035768929958</v>
       </c>
       <c r="N45" t="n">
-        <v>942.2936138894171</v>
+        <v>699.3061895662099</v>
       </c>
       <c r="O45" t="n">
-        <v>1228.838432712718</v>
+        <v>985.8510083895106</v>
       </c>
       <c r="P45" t="n">
-        <v>1288.495404740259</v>
+        <v>1198.825420055276</v>
       </c>
       <c r="Q45" t="n">
         <v>1288.495404740259</v>
@@ -7752,25 +7752,25 @@
         <v>1288.495404740259</v>
       </c>
       <c r="S45" t="n">
-        <v>1288.495404740259</v>
+        <v>1118.088294735108</v>
       </c>
       <c r="T45" t="n">
-        <v>1086.962034549108</v>
+        <v>1118.088294735108</v>
       </c>
       <c r="U45" t="n">
-        <v>858.7490782732568</v>
+        <v>1118.088294735108</v>
       </c>
       <c r="V45" t="n">
-        <v>623.5969700415142</v>
+        <v>924.0066010131256</v>
       </c>
       <c r="W45" t="n">
-        <v>422.6771850606399</v>
+        <v>924.0066010131256</v>
       </c>
       <c r="X45" t="n">
-        <v>422.6771850606399</v>
+        <v>716.1551008075928</v>
       </c>
       <c r="Y45" t="n">
-        <v>422.6771850606399</v>
+        <v>508.394802042639</v>
       </c>
     </row>
     <row r="46">
@@ -7828,25 +7828,25 @@
         <v>253.5851416400162</v>
       </c>
       <c r="R46" t="n">
-        <v>80.61000551559451</v>
+        <v>253.5851416400162</v>
       </c>
       <c r="S46" t="n">
-        <v>80.61000551559451</v>
+        <v>253.5851416400162</v>
       </c>
       <c r="T46" t="n">
-        <v>80.61000551559451</v>
+        <v>253.5851416400162</v>
       </c>
       <c r="U46" t="n">
-        <v>80.61000551559451</v>
+        <v>253.5851416400162</v>
       </c>
       <c r="V46" t="n">
-        <v>80.61000551559451</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="W46" t="n">
-        <v>80.61000551559451</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="X46" t="n">
-        <v>80.61000551559451</v>
+        <v>25.76990809480518</v>
       </c>
       <c r="Y46" t="n">
         <v>25.76990809480518</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>103.7181473126884</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>423.6056449368108</v>
+        <v>331.3336159819402</v>
       </c>
       <c r="N12" t="n">
-        <v>280.8861378459336</v>
+        <v>411.7373792653347</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>103.3371002906794</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>119.5015456298055</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>111.9336403531212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>125.3985025527448</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>423.6056449368109</v>
       </c>
       <c r="N15" t="n">
-        <v>411.7373792653347</v>
+        <v>319.4653503104641</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>103.3371002906794</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>119.5015456298055</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>111.6794146966506</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>111.9336403531212</v>
       </c>
       <c r="L18" t="n">
-        <v>139.8101231965031</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>423.6056449368109</v>
+        <v>393.2894705353542</v>
       </c>
       <c r="N18" t="n">
         <v>411.7373792653347</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>103.3371002906794</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>111.6794146966506</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>405.6471585653096</v>
+        <v>101.4817937517462</v>
       </c>
       <c r="N21" t="n">
         <v>411.7373792653347</v>
       </c>
       <c r="O21" t="n">
-        <v>104.4231083441025</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.5015456298055</v>
+        <v>148.6393201545002</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>309.6466476522966</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>477.0972130603578</v>
+        <v>230.4630548566112</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.5015456298055</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>111.6794146966506</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3318554489701</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>477.0972130603578</v>
+        <v>477.0972130603579</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>252.2155238227846</v>
       </c>
       <c r="P27" t="n">
-        <v>103.3371002906794</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>119.5015456298055</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>111.6794146966506</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.6178077434703</v>
+        <v>214.7819292057558</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>119.5015456298055</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,13 +10437,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>477.0972130603577</v>
+        <v>321.038796962654</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>162.4043525422333</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>119.5015456298055</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>172.193208057708</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>411.7373792653347</v>
       </c>
       <c r="O36" t="n">
-        <v>211.0145482158154</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>103.3371002906794</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>119.5015456298055</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>111.6794146966506</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>111.9336403531212</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>315.0714164592662</v>
+        <v>423.6056449368109</v>
       </c>
       <c r="N39" t="n">
         <v>411.7373792653347</v>
       </c>
       <c r="O39" t="n">
-        <v>104.4231083441025</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>178.0082886390246</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>119.5015456298055</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>224.1897376992209</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>103.7181473126884</v>
@@ -11148,7 +11148,7 @@
         <v>423.6056449368109</v>
       </c>
       <c r="N42" t="n">
-        <v>411.7373792653347</v>
+        <v>280.8861378459337</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>119.5015456298055</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,7 +11382,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>423.6056449368109</v>
+        <v>178.1638021860966</v>
       </c>
       <c r="N45" t="n">
         <v>411.7373792653347</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>163.5966679952664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.5015456298055</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>84.75219455664677</v>
       </c>
       <c r="G11" t="n">
-        <v>415.0028731277282</v>
+        <v>92.87902194266348</v>
       </c>
       <c r="H11" t="n">
         <v>336.403815958236</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>198.9153677749005</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>221.7831932082576</v>
       </c>
       <c r="U11" t="n">
-        <v>166.5103434079396</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>5.628407285070239</v>
+        <v>295.3472341031741</v>
       </c>
       <c r="W11" t="n">
-        <v>27.11711753234835</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,16 +23334,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>1.573777472465707</v>
       </c>
       <c r="E12" t="n">
-        <v>1.693737799159777</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>90.19638163662491</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.5180364892395</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9308267130926</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23440,7 +23440,7 @@
         <v>83.8494050586428</v>
       </c>
       <c r="K13" t="n">
-        <v>6.642010118074831</v>
+        <v>6.642010118074827</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>227.3708698349583</v>
       </c>
       <c r="U13" t="n">
-        <v>60.77461130085979</v>
+        <v>60.77461130085976</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23498,7 +23498,7 @@
         <v>290.4169205077621</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>279.8270703574375</v>
       </c>
       <c r="E14" t="n">
         <v>307.0743988090164</v>
@@ -23507,13 +23507,13 @@
         <v>9.896223293401306</v>
       </c>
       <c r="G14" t="n">
-        <v>340.1469018644827</v>
+        <v>18.02305067941802</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>124.0593965116552</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23540,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.17679035245423</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>35.60659256868219</v>
+        <v>127.3309385949647</v>
       </c>
       <c r="T14" t="n">
-        <v>146.9272219450121</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>176.4656924935985</v>
@@ -23558,10 +23558,10 @@
         <v>274.3849974541676</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>294.8751294152236</v>
       </c>
       <c r="Y14" t="n">
-        <v>311.3819673928082</v>
+        <v>294.2426815880509</v>
       </c>
     </row>
     <row r="15">
@@ -23571,13 +23571,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>91.67721238662195</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>97.85252772507035</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>72.58909430139336</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23586,13 +23586,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>62.32710430815596</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.016685729823893</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>15.34041037337952</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23634,10 +23634,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>58.84972486205923</v>
       </c>
       <c r="X15" t="n">
-        <v>99.64412629694857</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.9760089186919</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>46.87706933172664</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>73.75950175496696</v>
@@ -23662,19 +23662,19 @@
         <v>71.57799138332378</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>70.56507675968585</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>81.32717351968296</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>86.17529536702389</v>
       </c>
       <c r="I16" t="n">
         <v>76.54945597313426</v>
       </c>
       <c r="J16" t="n">
-        <v>8.993433795397412</v>
+        <v>8.99343379539741</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04279076696074924</v>
+        <v>0.04279076696074746</v>
       </c>
       <c r="R16" t="n">
         <v>96.38941349993203</v>
       </c>
       <c r="S16" t="n">
-        <v>146.8165045175556</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.4557212473733</v>
       </c>
       <c r="V16" t="n">
         <v>177.2816720605826</v>
@@ -23716,7 +23716,7 @@
         <v>211.6670270733456</v>
       </c>
       <c r="X16" t="n">
-        <v>150.8536841257917</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>143.7286820888494</v>
@@ -23741,16 +23741,16 @@
         <v>307.0743988090164</v>
       </c>
       <c r="F17" t="n">
-        <v>247.9429734742785</v>
+        <v>9.896223293401306</v>
       </c>
       <c r="G17" t="n">
-        <v>340.1469018644827</v>
+        <v>18.02305067941802</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>110.3184897043981</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>146.9272219450121</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>176.4656924935985</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>252.8962872068895</v>
       </c>
       <c r="W17" t="n">
-        <v>274.3849974541676</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>294.8751294152236</v>
       </c>
       <c r="Y17" t="n">
         <v>311.3819673928082</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>87.23317716849957</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.016685729823893</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23865,10 +23865,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>151.0748554498473</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>157.9446158861799</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>71.34673100234311</v>
       </c>
     </row>
     <row r="19">
@@ -23938,22 +23938,22 @@
         <v>96.38941349993203</v>
       </c>
       <c r="S19" t="n">
-        <v>28.84352469354992</v>
+        <v>146.8165045175556</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>211.4557212473733</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>211.6670270733456</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>150.8536841257917</v>
+        <v>33.09201012775829</v>
       </c>
       <c r="Y19" t="n">
         <v>143.7286820888494</v>
@@ -23969,7 +23969,7 @@
         <v>307.8778704002352</v>
       </c>
       <c r="C20" t="n">
-        <v>25.90915282764036</v>
+        <v>290.4169205077621</v>
       </c>
       <c r="D20" t="n">
         <v>279.8270703574375</v>
@@ -23978,7 +23978,7 @@
         <v>307.0743988090164</v>
       </c>
       <c r="F20" t="n">
-        <v>332.020074478466</v>
+        <v>80.54393936934619</v>
       </c>
       <c r="G20" t="n">
         <v>340.1469018644827</v>
@@ -24020,10 +24020,10 @@
         <v>127.3309385949647</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>146.9272219450121</v>
       </c>
       <c r="U20" t="n">
-        <v>176.4656924935985</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>294.8751294152236</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>311.3819673928082</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>91.67721238662195</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>97.85252772507035</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>72.58909430139336</v>
       </c>
       <c r="E21" t="n">
-        <v>82.78910919215555</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>70.21324113013848</v>
       </c>
       <c r="G21" t="n">
-        <v>62.32710430815596</v>
+        <v>12.99357983512423</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.514606731413362</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,7 +24093,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>15.34041037337952</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>73.75950175496696</v>
       </c>
       <c r="E22" t="n">
-        <v>71.57799138332378</v>
+        <v>63.79878686323082</v>
       </c>
       <c r="F22" t="n">
         <v>70.56507675968585</v>
       </c>
       <c r="G22" t="n">
-        <v>93.00049925422285</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>86.17529536702389</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>76.54945597313426</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>8.99343379539741</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>152.5148985717129</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>211.4557212473733</v>
       </c>
       <c r="V22" t="n">
         <v>177.2816720605826</v>
@@ -24190,10 +24190,10 @@
         <v>211.6670270733456</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>150.8536841257917</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.01873377582737</v>
+        <v>143.7286820888494</v>
       </c>
     </row>
     <row r="23">
@@ -24209,7 +24209,7 @@
         <v>290.4169205077621</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>265.0298383482606</v>
       </c>
       <c r="E23" t="n">
         <v>307.0743988090164</v>
@@ -24218,13 +24218,13 @@
         <v>332.020074478466</v>
       </c>
       <c r="G23" t="n">
-        <v>122.289573709993</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>124.0593965116551</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24254,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>127.3309385949647</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>146.9272219450121</v>
       </c>
       <c r="U23" t="n">
-        <v>176.4656924935985</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>274.3849974541676</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>294.8751294152236</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>311.3819673928082</v>
       </c>
     </row>
     <row r="24">
@@ -24364,25 +24364,25 @@
         <v>104.9760089186919</v>
       </c>
       <c r="C25" t="n">
-        <v>48.52208071291466</v>
+        <v>92.39084983538244</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>73.75950175496696</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>71.57799138332378</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>70.56507675968585</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>93.00049925422285</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>86.17529536702389</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>76.54945597313426</v>
       </c>
       <c r="J25" t="n">
         <v>8.99343379539741</v>
@@ -24412,16 +24412,16 @@
         <v>96.38941349993203</v>
       </c>
       <c r="S25" t="n">
-        <v>146.8165045175556</v>
+        <v>28.84352469354982</v>
       </c>
       <c r="T25" t="n">
-        <v>152.5148985717129</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>211.4557212473733</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>177.2816720605826</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>211.6670270733456</v>
@@ -24430,7 +24430,7 @@
         <v>150.8536841257917</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>143.7286820888494</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>307.8778704002352</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>290.4169205077621</v>
       </c>
       <c r="D26" t="n">
         <v>279.8270703574375</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>340.1469018644827</v>
       </c>
       <c r="H26" t="n">
-        <v>261.5478446949906</v>
+        <v>251.0389682338266</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.17679035245423</v>
       </c>
       <c r="S26" t="n">
-        <v>127.3309385949647</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>146.9272219450121</v>
       </c>
       <c r="U26" t="n">
-        <v>122.6134903467103</v>
+        <v>176.4656924935985</v>
       </c>
       <c r="V26" t="n">
         <v>252.8962872068895</v>
@@ -24506,7 +24506,7 @@
         <v>274.3849974541676</v>
       </c>
       <c r="X26" t="n">
-        <v>294.8751294152236</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>311.3819673928082</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.62652316301745</v>
+        <v>104.9760089186919</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>92.39084983538244</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>73.75950175496696</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>71.57799138332378</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>70.56507675968585</v>
       </c>
       <c r="G28" t="n">
         <v>93.00049925422285</v>
@@ -24655,19 +24655,19 @@
         <v>152.5148985717129</v>
       </c>
       <c r="U28" t="n">
-        <v>211.4557212473733</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>177.2816720605826</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>211.6670270733456</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>92.03283280341853</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>143.7286820888494</v>
       </c>
     </row>
     <row r="29">
@@ -24680,19 +24680,19 @@
         <v>307.8778704002352</v>
       </c>
       <c r="C29" t="n">
-        <v>290.4169205077621</v>
+        <v>152.8511001521786</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>279.8270703574375</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>307.0743988090164</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>332.020074478466</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>340.1469018644827</v>
       </c>
       <c r="H29" t="n">
         <v>261.5478446949906</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>56.17679035245423</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>127.3309385949647</v>
@@ -24734,19 +24734,19 @@
         <v>146.9272219450121</v>
       </c>
       <c r="U29" t="n">
-        <v>176.4656924935985</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>8.218048045567429</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>274.3849974541676</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>294.8751294152236</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>311.3819673928082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,10 +24838,10 @@
         <v>104.9760089186919</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>92.39084983538244</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>73.75950175496696</v>
       </c>
       <c r="E31" t="n">
         <v>71.57799138332378</v>
@@ -24850,7 +24850,7 @@
         <v>70.56507675968585</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>93.00049925422285</v>
       </c>
       <c r="H31" t="n">
         <v>86.17529536702389</v>
@@ -24883,28 +24883,28 @@
         <v>0.04279076696074746</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>96.38941349993203</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>63.22887970631278</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3750778189476</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>211.4557212473733</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>177.2816720605826</v>
       </c>
       <c r="W31" t="n">
-        <v>211.6670270733456</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>150.8536841257917</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>143.7286820888494</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24917,25 @@
         <v>307.8778704002352</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>290.4169205077621</v>
       </c>
       <c r="D32" t="n">
-        <v>279.8270703574375</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>307.0743988090164</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>332.020074478466</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>330.105010383909</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>261.5478446949906</v>
       </c>
       <c r="I32" t="n">
-        <v>124.0593965116551</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>13.67506270416575</v>
+        <v>56.17679035245423</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24971,7 +24971,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>176.4656924935985</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>252.8962872068895</v>
@@ -24980,7 +24980,7 @@
         <v>274.3849974541676</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>294.8751294152236</v>
       </c>
       <c r="Y32" t="n">
         <v>311.3819673928082</v>
@@ -25084,19 +25084,19 @@
         <v>71.57799138332378</v>
       </c>
       <c r="F34" t="n">
-        <v>70.56507675968585</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>93.00049925422285</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>86.17529536702389</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>76.54945597313426</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>8.99343379539741</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25126,16 +25126,16 @@
         <v>146.8165045175556</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>40.02910926487554</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>93.69404724933982</v>
+        <v>177.2816720605826</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>211.6670270733456</v>
       </c>
       <c r="X34" t="n">
         <v>150.8536841257917</v>
@@ -25154,7 +25154,7 @@
         <v>307.8778704002352</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>290.4169205077621</v>
       </c>
       <c r="D35" t="n">
         <v>279.8270703574375</v>
@@ -25163,13 +25163,13 @@
         <v>307.0743988090164</v>
       </c>
       <c r="F35" t="n">
-        <v>332.020074478466</v>
+        <v>245.6532246955334</v>
       </c>
       <c r="G35" t="n">
-        <v>340.1469018644827</v>
+        <v>18.02305067941802</v>
       </c>
       <c r="H35" t="n">
-        <v>261.5478446949906</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>56.17679035245423</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>127.3309385949647</v>
       </c>
       <c r="T35" t="n">
-        <v>146.9272219450121</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>176.4656924935985</v>
       </c>
       <c r="V35" t="n">
-        <v>252.8962872068895</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>274.3849974541676</v>
       </c>
       <c r="X35" t="n">
-        <v>45.02016960261744</v>
+        <v>294.8751294152236</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>311.3819673928082</v>
       </c>
     </row>
     <row r="36">
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>91.67721238662195</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25242,13 +25242,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>70.21324113013848</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>62.32710430815596</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>35.82994496814566</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25287,19 +25287,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>151.0748554498473</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>85.27815258528631</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.89637515525722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25363,10 +25363,10 @@
         <v>146.8165045175556</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5148985717129</v>
+        <v>93.69404724933986</v>
       </c>
       <c r="U37" t="n">
-        <v>92.03283280341861</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>150.8536841257917</v>
       </c>
       <c r="Y37" t="n">
         <v>143.7286820888494</v>
@@ -25397,16 +25397,16 @@
         <v>279.8270703574375</v>
       </c>
       <c r="E38" t="n">
-        <v>307.0743988090164</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>332.020074478466</v>
       </c>
       <c r="G38" t="n">
-        <v>18.02305067941802</v>
+        <v>340.1469018644827</v>
       </c>
       <c r="H38" t="n">
-        <v>210.7114514706826</v>
+        <v>261.5478446949906</v>
       </c>
       <c r="I38" t="n">
         <v>124.0593965116551</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>56.17679035245423</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>127.3309385949647</v>
@@ -25451,13 +25451,13 @@
         <v>252.8962872068895</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>6.797782729682694</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>294.8751294152236</v>
       </c>
       <c r="Y38" t="n">
-        <v>311.3819673928082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25473,22 +25473,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>55.79946197146283</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>82.78910919215555</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>70.21324113013848</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>35.82994496814566</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>9.016685729823893</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>15.34041037337952</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>93.84706764185428</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>124.6620652259941</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,7 +25530,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>19.79889975049852</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25628,25 +25628,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>290.4169205077621</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>279.8270703574375</v>
       </c>
       <c r="E41" t="n">
         <v>307.0743988090164</v>
       </c>
       <c r="F41" t="n">
-        <v>9.896223293401306</v>
+        <v>332.020074478466</v>
       </c>
       <c r="G41" t="n">
-        <v>340.1469018644827</v>
+        <v>18.02305067941802</v>
       </c>
       <c r="H41" t="n">
-        <v>261.5478446949906</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>58.17494422956101</v>
+        <v>55.92764162070866</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>252.8962872068895</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>274.3849974541676</v>
       </c>
       <c r="X41" t="n">
         <v>294.8751294152236</v>
@@ -25704,28 +25704,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.05699836803905</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>72.58909430139336</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>82.78910919215555</v>
+        <v>60.92105648208282</v>
       </c>
       <c r="F42" t="n">
         <v>70.21324113013848</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>62.32710430815596</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>35.82994496814566</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>9.016685729823893</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>15.34041037337952</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>104.9760089186919</v>
       </c>
       <c r="C43" t="n">
-        <v>92.39084983538244</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>73.75950175496696</v>
@@ -25795,7 +25795,7 @@
         <v>71.57799138332378</v>
       </c>
       <c r="F43" t="n">
-        <v>70.56507675968585</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>93.00049925422285</v>
@@ -25804,10 +25804,10 @@
         <v>86.17529536702389</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>76.54945597313426</v>
       </c>
       <c r="J43" t="n">
-        <v>8.993433795397412</v>
+        <v>8.99343379539741</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,25 +25828,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.04279076696074924</v>
+        <v>0.04279076696074746</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>96.38941349993203</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>146.8165045175556</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>152.5148985717129</v>
       </c>
       <c r="U43" t="n">
-        <v>24.50072210603355</v>
+        <v>104.1350752726952</v>
       </c>
       <c r="V43" t="n">
-        <v>177.2816720605826</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>211.6670270733456</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>150.8536841257917</v>
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60.60999047841585</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>43.14904058594283</v>
       </c>
       <c r="D44" t="n">
-        <v>32.55919043561823</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>374.4710213747506</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.0028731277282</v>
+        <v>191.5067591914023</v>
       </c>
       <c r="H44" t="n">
         <v>336.403815958236</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>131.0327616156996</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>202.1869098582101</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>27.11711753234829</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25944,22 +25944,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.1830755714014</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>110.6859162313911</v>
       </c>
       <c r="I45" t="n">
         <v>83.87265699306928</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>90.19638163662492</v>
+        <v>90.19638163662491</v>
       </c>
       <c r="S45" t="n">
-        <v>168.7030389050997</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.5180364892395</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9308267130926</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>40.65971036466311</v>
       </c>
       <c r="W45" t="n">
-        <v>52.78439602985407</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26047,7 +26047,7 @@
         <v>83.8494050586428</v>
       </c>
       <c r="K46" t="n">
-        <v>6.642010118074831</v>
+        <v>6.642010118074827</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>74.89876203020614</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>171.2453847631774</v>
       </c>
       <c r="S46" t="n">
         <v>221.6724757808011</v>
@@ -26080,7 +26080,7 @@
         <v>286.3116925106187</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>26.60056211406908</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>164.2929569055133</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>421395.2939099356</v>
+        <v>421395.2939099355</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>605694.2402085442</v>
+        <v>605694.2402085441</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605694.2402085442</v>
+        <v>605694.2402085441</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605694.240208544</v>
+        <v>605694.2402085442</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637511.6811774708</v>
+        <v>637511.6811774711</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>605694.2402085442</v>
+        <v>605694.2402085441</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>605694.2402085442</v>
+        <v>605694.2402085441</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>605694.2402085441</v>
+        <v>605694.2402085442</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421395.2939099356</v>
+        <v>421395.2939099357</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448199</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448196</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>294672.5317155952</v>
+        <v>294672.531715595</v>
       </c>
       <c r="F2" t="n">
         <v>441166.5659529502</v>
@@ -26329,31 +26329,31 @@
         <v>441166.5659529502</v>
       </c>
       <c r="H2" t="n">
+        <v>441166.5659529501</v>
+      </c>
+      <c r="I2" t="n">
+        <v>465149.0262378178</v>
+      </c>
+      <c r="J2" t="n">
+        <v>465149.0262378179</v>
+      </c>
+      <c r="K2" t="n">
+        <v>465149.0262378179</v>
+      </c>
+      <c r="L2" t="n">
+        <v>465149.0262378177</v>
+      </c>
+      <c r="M2" t="n">
         <v>441166.5659529502</v>
       </c>
-      <c r="I2" t="n">
-        <v>465149.0262378179</v>
-      </c>
-      <c r="J2" t="n">
-        <v>465149.0262378178</v>
-      </c>
-      <c r="K2" t="n">
-        <v>465149.0262378178</v>
-      </c>
-      <c r="L2" t="n">
-        <v>465149.0262378178</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>441166.5659529502</v>
+      </c>
+      <c r="O2" t="n">
         <v>441166.5659529503</v>
       </c>
-      <c r="N2" t="n">
-        <v>441166.5659529504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>441166.5659529501</v>
-      </c>
       <c r="P2" t="n">
-        <v>294672.5317155952</v>
+        <v>294672.5317155951</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>84144.3780680465</v>
+        <v>84144.37806804653</v>
       </c>
       <c r="F3" t="n">
         <v>59884.77701059631</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="C4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.531561994</v>
       </c>
       <c r="D4" t="n">
-        <v>331135.7712457015</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="E4" t="n">
-        <v>52742.17392733498</v>
+        <v>50919.9349657835</v>
       </c>
       <c r="F4" t="n">
-        <v>160767.7222881984</v>
+        <v>158945.4833266469</v>
       </c>
       <c r="G4" t="n">
-        <v>160767.7222881984</v>
+        <v>158945.4833266469</v>
       </c>
       <c r="H4" t="n">
-        <v>160767.7222881984</v>
+        <v>158945.4833266469</v>
       </c>
       <c r="I4" t="n">
-        <v>174278.2339933753</v>
+        <v>172396.8112450105</v>
       </c>
       <c r="J4" t="n">
-        <v>174278.2339933752</v>
+        <v>172396.8112450105</v>
       </c>
       <c r="K4" t="n">
-        <v>174278.2339933753</v>
+        <v>172396.8112450105</v>
       </c>
       <c r="L4" t="n">
-        <v>174278.2339933752</v>
+        <v>172396.8112450105</v>
       </c>
       <c r="M4" t="n">
-        <v>160767.7222881984</v>
+        <v>158945.4833266469</v>
       </c>
       <c r="N4" t="n">
-        <v>160767.7222881984</v>
+        <v>158945.4833266469</v>
       </c>
       <c r="O4" t="n">
-        <v>160767.7222881984</v>
+        <v>158945.4833266469</v>
       </c>
       <c r="P4" t="n">
-        <v>52742.17392733499</v>
+        <v>50919.93496578351</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176120.900103809</v>
+        <v>177926.1397875163</v>
       </c>
       <c r="C6" t="n">
-        <v>256890.3316353565</v>
+        <v>258695.5713190642</v>
       </c>
       <c r="D6" t="n">
-        <v>256890.3316353566</v>
+        <v>258695.5713190639</v>
       </c>
       <c r="E6" t="n">
-        <v>136574.7599613509</v>
+        <v>138396.9989229022</v>
       </c>
       <c r="F6" t="n">
-        <v>193009.7802471629</v>
+        <v>194832.0192087144</v>
       </c>
       <c r="G6" t="n">
-        <v>252894.5572577593</v>
+        <v>254716.7962193107</v>
       </c>
       <c r="H6" t="n">
-        <v>252894.5572577593</v>
+        <v>254716.7962193106</v>
       </c>
       <c r="I6" t="n">
-        <v>242012.0755801063</v>
+        <v>243893.498328471</v>
       </c>
       <c r="J6" t="n">
-        <v>196332.6853436064</v>
+        <v>198214.1080919712</v>
       </c>
       <c r="K6" t="n">
-        <v>199507.8509321163</v>
+        <v>201389.2736804812</v>
       </c>
       <c r="L6" t="n">
-        <v>259392.6279427126</v>
+        <v>261274.0506910772</v>
       </c>
       <c r="M6" t="n">
-        <v>248969.6619135596</v>
+        <v>250791.900875111</v>
       </c>
       <c r="N6" t="n">
-        <v>252894.5572577594</v>
+        <v>254716.7962193107</v>
       </c>
       <c r="O6" t="n">
-        <v>252894.5572577592</v>
+        <v>254716.7962193108</v>
       </c>
       <c r="P6" t="n">
-        <v>220719.1380293974</v>
+        <v>222541.3769909488</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>74.5912663674718</v>
+        <v>74.59126636747182</v>
       </c>
       <c r="F3" t="n">
-        <v>74.5912663674718</v>
+        <v>74.59126636747182</v>
       </c>
       <c r="G3" t="n">
         <v>74.59126636747182</v>
@@ -26774,10 +26774,10 @@
         <v>74.59126636747182</v>
       </c>
       <c r="O3" t="n">
-        <v>74.5912663674718</v>
+        <v>74.59126636747182</v>
       </c>
       <c r="P3" t="n">
-        <v>74.5912663674718</v>
+        <v>74.59126636747182</v>
       </c>
     </row>
     <row r="4">
@@ -26814,7 +26814,7 @@
         <v>387.4836849800879</v>
       </c>
       <c r="K4" t="n">
-        <v>387.4836849800878</v>
+        <v>387.4836849800879</v>
       </c>
       <c r="L4" t="n">
         <v>387.4836849800877</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>74.5912663674718</v>
+        <v>74.59126636747182</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>213.9149468690341</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27430,13 +27430,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>69.62234866431885</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,13 +27591,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>310.9156916318736</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
@@ -27634,10 +27634,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27716,7 +27716,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,25 +27740,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>16.76669851891381</v>
+        <v>50.47759667553376</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
-        <v>125.1208257738508</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>207.0389011273226</v>
+        <v>344.9587297138598</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27935,22 +27935,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>125.5955290372145</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,25 +27980,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>167.7024315953054</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29065,11 +29065,11 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
         <v>34.23062002490114</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
@@ -29077,10 +29077,10 @@
         <v>74.85597126324539</v>
       </c>
       <c r="P23" t="n">
-        <v>74.85597126324539</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>74.85597126324539</v>
       </c>
       <c r="R23" t="n">
         <v>74.85597126324539</v>
@@ -29296,28 +29296,28 @@
         <v>74.85597126324539</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>74.85597126324539</v>
       </c>
       <c r="K26" t="n">
+        <v>74.85597126324539</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>74.85597126324539</v>
+      </c>
+      <c r="Q26" t="n">
         <v>34.23062002490115</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>74.85597126324539</v>
-      </c>
-      <c r="O26" t="n">
-        <v>74.85597126324539</v>
-      </c>
-      <c r="P26" t="n">
-        <v>74.85597126324539</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>74.85597126324539</v>
@@ -29533,25 +29533,25 @@
         <v>74.85597126324539</v>
       </c>
       <c r="J29" t="n">
-        <v>74.85597126324539</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>74.85597126324539</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>74.85597126324539</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>34.23062002490103</v>
+        <v>34.23062002490109</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>74.85597126324539</v>
       </c>
       <c r="Q29" t="n">
         <v>74.85597126324539</v>
@@ -29773,7 +29773,7 @@
         <v>74.85597126324539</v>
       </c>
       <c r="K32" t="n">
-        <v>34.23062002490016</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>34.23062002490062</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29846,7 +29846,7 @@
         <v>74.85597126324539</v>
       </c>
       <c r="I33" t="n">
-        <v>74.8559712632468</v>
+        <v>74.85597126324714</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2998643874069216</v>
+        <v>0.2998643874069217</v>
       </c>
       <c r="H11" t="n">
         <v>3.070986157531137</v>
@@ -31759,40 +31759,40 @@
         <v>11.56052179550536</v>
       </c>
       <c r="J11" t="n">
-        <v>25.45061505067823</v>
+        <v>25.45061505067824</v>
       </c>
       <c r="K11" t="n">
-        <v>38.14387456961323</v>
+        <v>38.14387456961324</v>
       </c>
       <c r="L11" t="n">
-        <v>47.32084931571782</v>
+        <v>47.32084931571783</v>
       </c>
       <c r="M11" t="n">
-        <v>52.65356261526566</v>
+        <v>52.65356261526567</v>
       </c>
       <c r="N11" t="n">
-        <v>53.50555230598558</v>
+        <v>53.50555230598559</v>
       </c>
       <c r="O11" t="n">
-        <v>50.523775803708</v>
+        <v>50.52377580370801</v>
       </c>
       <c r="P11" t="n">
         <v>43.12087373959962</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.38198036558923</v>
+        <v>32.38198036558924</v>
       </c>
       <c r="R11" t="n">
-        <v>18.83635632545005</v>
+        <v>18.83635632545006</v>
       </c>
       <c r="S11" t="n">
-        <v>6.833159728035232</v>
+        <v>6.833159728035234</v>
       </c>
       <c r="T11" t="n">
         <v>1.3126563558738</v>
       </c>
       <c r="U11" t="n">
-        <v>0.02398915099255372</v>
+        <v>0.02398915099255373</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>1.549528005105405</v>
       </c>
       <c r="I12" t="n">
-        <v>5.52397585834579</v>
+        <v>5.523975858345791</v>
       </c>
       <c r="J12" t="n">
         <v>15.15821197001614</v>
@@ -31844,31 +31844,31 @@
         <v>25.90779862123783</v>
       </c>
       <c r="L12" t="n">
-        <v>34.83623246718577</v>
+        <v>34.83623246718578</v>
       </c>
       <c r="M12" t="n">
-        <v>40.65224017027213</v>
+        <v>40.65224017027214</v>
       </c>
       <c r="N12" t="n">
-        <v>41.72818400306331</v>
+        <v>41.72818400306332</v>
       </c>
       <c r="O12" t="n">
-        <v>38.17313610034191</v>
+        <v>38.17313610034192</v>
       </c>
       <c r="P12" t="n">
-        <v>30.63730712365083</v>
+        <v>30.63730712365084</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.48022845621603</v>
+        <v>20.48022845621604</v>
       </c>
       <c r="R12" t="n">
-        <v>9.96145251601822</v>
+        <v>9.961452516018221</v>
       </c>
       <c r="S12" t="n">
-        <v>2.98013219873814</v>
+        <v>2.980132198738141</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6466922055821374</v>
+        <v>0.6466922055821375</v>
       </c>
       <c r="U12" t="n">
         <v>0.01055536788218941</v>
@@ -31911,16 +31911,16 @@
         <v>0.1345088409905229</v>
       </c>
       <c r="H13" t="n">
-        <v>1.195905877170286</v>
+        <v>1.195905877170287</v>
       </c>
       <c r="I13" t="n">
-        <v>4.045047690878635</v>
+        <v>4.045047690878636</v>
       </c>
       <c r="J13" t="n">
-        <v>9.50977505802997</v>
+        <v>9.509775058029971</v>
       </c>
       <c r="K13" t="n">
-        <v>15.62748170780802</v>
+        <v>15.62748170780803</v>
       </c>
       <c r="L13" t="n">
         <v>19.99779623235466</v>
@@ -31929,7 +31929,7 @@
         <v>21.08487222908715</v>
       </c>
       <c r="N13" t="n">
-        <v>20.58352109448612</v>
+        <v>20.58352109448613</v>
       </c>
       <c r="O13" t="n">
         <v>19.01221327018774</v>
@@ -31941,16 +31941,16 @@
         <v>11.26328122148824</v>
       </c>
       <c r="R13" t="n">
-        <v>6.048006613992055</v>
+        <v>6.048006613992057</v>
       </c>
       <c r="S13" t="n">
         <v>2.344122256171203</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5747195933231432</v>
+        <v>0.5747195933231433</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007336845872210349</v>
+        <v>0.007336845872210351</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2998643874069216</v>
+        <v>0.2998643874069217</v>
       </c>
       <c r="H14" t="n">
         <v>3.070986157531137</v>
@@ -31996,40 +31996,40 @@
         <v>11.56052179550536</v>
       </c>
       <c r="J14" t="n">
-        <v>25.45061505067823</v>
+        <v>25.45061505067824</v>
       </c>
       <c r="K14" t="n">
-        <v>38.14387456961323</v>
+        <v>38.14387456961324</v>
       </c>
       <c r="L14" t="n">
-        <v>47.32084931571782</v>
+        <v>47.32084931571783</v>
       </c>
       <c r="M14" t="n">
-        <v>52.65356261526566</v>
+        <v>52.65356261526567</v>
       </c>
       <c r="N14" t="n">
-        <v>53.50555230598558</v>
+        <v>53.50555230598559</v>
       </c>
       <c r="O14" t="n">
-        <v>50.523775803708</v>
+        <v>50.52377580370801</v>
       </c>
       <c r="P14" t="n">
         <v>43.12087373959962</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.38198036558923</v>
+        <v>32.38198036558924</v>
       </c>
       <c r="R14" t="n">
-        <v>18.83635632545005</v>
+        <v>18.83635632545006</v>
       </c>
       <c r="S14" t="n">
-        <v>6.833159728035232</v>
+        <v>6.833159728035234</v>
       </c>
       <c r="T14" t="n">
         <v>1.3126563558738</v>
       </c>
       <c r="U14" t="n">
-        <v>0.02398915099255372</v>
+        <v>0.02398915099255373</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>1.549528005105405</v>
       </c>
       <c r="I15" t="n">
-        <v>5.52397585834579</v>
+        <v>5.523975858345791</v>
       </c>
       <c r="J15" t="n">
         <v>15.15821197001614</v>
@@ -32081,31 +32081,31 @@
         <v>25.90779862123783</v>
       </c>
       <c r="L15" t="n">
-        <v>34.83623246718577</v>
+        <v>34.83623246718578</v>
       </c>
       <c r="M15" t="n">
-        <v>40.65224017027213</v>
+        <v>40.65224017027214</v>
       </c>
       <c r="N15" t="n">
-        <v>41.72818400306331</v>
+        <v>41.72818400306332</v>
       </c>
       <c r="O15" t="n">
-        <v>38.17313610034191</v>
+        <v>38.17313610034192</v>
       </c>
       <c r="P15" t="n">
-        <v>30.63730712365083</v>
+        <v>30.63730712365084</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.48022845621603</v>
+        <v>20.48022845621604</v>
       </c>
       <c r="R15" t="n">
-        <v>9.96145251601822</v>
+        <v>9.961452516018221</v>
       </c>
       <c r="S15" t="n">
-        <v>2.98013219873814</v>
+        <v>2.980132198738141</v>
       </c>
       <c r="T15" t="n">
-        <v>0.6466922055821374</v>
+        <v>0.6466922055821375</v>
       </c>
       <c r="U15" t="n">
         <v>0.01055536788218941</v>
@@ -32148,16 +32148,16 @@
         <v>0.1345088409905229</v>
       </c>
       <c r="H16" t="n">
-        <v>1.195905877170286</v>
+        <v>1.195905877170287</v>
       </c>
       <c r="I16" t="n">
-        <v>4.045047690878635</v>
+        <v>4.045047690878636</v>
       </c>
       <c r="J16" t="n">
-        <v>9.50977505802997</v>
+        <v>9.509775058029971</v>
       </c>
       <c r="K16" t="n">
-        <v>15.62748170780802</v>
+        <v>15.62748170780803</v>
       </c>
       <c r="L16" t="n">
         <v>19.99779623235466</v>
@@ -32166,7 +32166,7 @@
         <v>21.08487222908715</v>
       </c>
       <c r="N16" t="n">
-        <v>20.58352109448612</v>
+        <v>20.58352109448613</v>
       </c>
       <c r="O16" t="n">
         <v>19.01221327018774</v>
@@ -32178,16 +32178,16 @@
         <v>11.26328122148824</v>
       </c>
       <c r="R16" t="n">
-        <v>6.048006613992055</v>
+        <v>6.048006613992057</v>
       </c>
       <c r="S16" t="n">
         <v>2.344122256171203</v>
       </c>
       <c r="T16" t="n">
-        <v>0.5747195933231432</v>
+        <v>0.5747195933231433</v>
       </c>
       <c r="U16" t="n">
-        <v>0.007336845872210349</v>
+        <v>0.007336845872210351</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2998643874069216</v>
+        <v>0.2998643874069217</v>
       </c>
       <c r="H41" t="n">
         <v>3.070986157531137</v>
@@ -34129,40 +34129,40 @@
         <v>11.56052179550536</v>
       </c>
       <c r="J41" t="n">
-        <v>25.45061505067823</v>
+        <v>25.45061505067824</v>
       </c>
       <c r="K41" t="n">
-        <v>38.14387456961323</v>
+        <v>38.14387456961324</v>
       </c>
       <c r="L41" t="n">
-        <v>47.32084931571782</v>
+        <v>47.32084931571783</v>
       </c>
       <c r="M41" t="n">
-        <v>52.65356261526566</v>
+        <v>52.65356261526567</v>
       </c>
       <c r="N41" t="n">
-        <v>53.50555230598558</v>
+        <v>53.50555230598559</v>
       </c>
       <c r="O41" t="n">
-        <v>50.523775803708</v>
+        <v>50.52377580370801</v>
       </c>
       <c r="P41" t="n">
         <v>43.12087373959962</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.38198036558923</v>
+        <v>32.38198036558924</v>
       </c>
       <c r="R41" t="n">
-        <v>18.83635632545005</v>
+        <v>18.83635632545006</v>
       </c>
       <c r="S41" t="n">
-        <v>6.833159728035232</v>
+        <v>6.833159728035234</v>
       </c>
       <c r="T41" t="n">
         <v>1.3126563558738</v>
       </c>
       <c r="U41" t="n">
-        <v>0.02398915099255372</v>
+        <v>0.02398915099255373</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>1.549528005105405</v>
       </c>
       <c r="I42" t="n">
-        <v>5.52397585834579</v>
+        <v>5.523975858345791</v>
       </c>
       <c r="J42" t="n">
         <v>15.15821197001614</v>
@@ -34214,31 +34214,31 @@
         <v>25.90779862123783</v>
       </c>
       <c r="L42" t="n">
-        <v>34.83623246718577</v>
+        <v>34.83623246718578</v>
       </c>
       <c r="M42" t="n">
-        <v>40.65224017027213</v>
+        <v>40.65224017027214</v>
       </c>
       <c r="N42" t="n">
-        <v>41.72818400306331</v>
+        <v>41.72818400306332</v>
       </c>
       <c r="O42" t="n">
-        <v>38.17313610034191</v>
+        <v>38.17313610034192</v>
       </c>
       <c r="P42" t="n">
-        <v>30.63730712365083</v>
+        <v>30.63730712365084</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.48022845621603</v>
+        <v>20.48022845621604</v>
       </c>
       <c r="R42" t="n">
-        <v>9.96145251601822</v>
+        <v>9.961452516018221</v>
       </c>
       <c r="S42" t="n">
-        <v>2.98013219873814</v>
+        <v>2.980132198738141</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6466922055821374</v>
+        <v>0.6466922055821375</v>
       </c>
       <c r="U42" t="n">
         <v>0.01055536788218941</v>
@@ -34281,16 +34281,16 @@
         <v>0.1345088409905229</v>
       </c>
       <c r="H43" t="n">
-        <v>1.195905877170286</v>
+        <v>1.195905877170287</v>
       </c>
       <c r="I43" t="n">
-        <v>4.045047690878635</v>
+        <v>4.045047690878636</v>
       </c>
       <c r="J43" t="n">
-        <v>9.50977505802997</v>
+        <v>9.509775058029971</v>
       </c>
       <c r="K43" t="n">
-        <v>15.62748170780802</v>
+        <v>15.62748170780803</v>
       </c>
       <c r="L43" t="n">
         <v>19.99779623235466</v>
@@ -34299,7 +34299,7 @@
         <v>21.08487222908715</v>
       </c>
       <c r="N43" t="n">
-        <v>20.58352109448612</v>
+        <v>20.58352109448613</v>
       </c>
       <c r="O43" t="n">
         <v>19.01221327018774</v>
@@ -34311,16 +34311,16 @@
         <v>11.26328122148824</v>
       </c>
       <c r="R43" t="n">
-        <v>6.048006613992055</v>
+        <v>6.048006613992057</v>
       </c>
       <c r="S43" t="n">
         <v>2.344122256171203</v>
       </c>
       <c r="T43" t="n">
-        <v>0.5747195933231432</v>
+        <v>0.5747195933231433</v>
       </c>
       <c r="U43" t="n">
-        <v>0.007336845872210349</v>
+        <v>0.007336845872210351</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2998643874069216</v>
+        <v>0.2998643874069217</v>
       </c>
       <c r="H44" t="n">
         <v>3.070986157531137</v>
@@ -34366,40 +34366,40 @@
         <v>11.56052179550536</v>
       </c>
       <c r="J44" t="n">
-        <v>25.45061505067823</v>
+        <v>25.45061505067824</v>
       </c>
       <c r="K44" t="n">
-        <v>38.14387456961323</v>
+        <v>38.14387456961324</v>
       </c>
       <c r="L44" t="n">
-        <v>47.32084931571782</v>
+        <v>47.32084931571783</v>
       </c>
       <c r="M44" t="n">
-        <v>52.65356261526566</v>
+        <v>52.65356261526567</v>
       </c>
       <c r="N44" t="n">
-        <v>53.50555230598558</v>
+        <v>53.50555230598559</v>
       </c>
       <c r="O44" t="n">
-        <v>50.523775803708</v>
+        <v>50.52377580370801</v>
       </c>
       <c r="P44" t="n">
         <v>43.12087373959962</v>
       </c>
       <c r="Q44" t="n">
-        <v>32.38198036558923</v>
+        <v>32.38198036558924</v>
       </c>
       <c r="R44" t="n">
-        <v>18.83635632545005</v>
+        <v>18.83635632545006</v>
       </c>
       <c r="S44" t="n">
-        <v>6.833159728035232</v>
+        <v>6.833159728035234</v>
       </c>
       <c r="T44" t="n">
         <v>1.3126563558738</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02398915099255372</v>
+        <v>0.02398915099255373</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>1.549528005105405</v>
       </c>
       <c r="I45" t="n">
-        <v>5.52397585834579</v>
+        <v>5.523975858345791</v>
       </c>
       <c r="J45" t="n">
         <v>15.15821197001614</v>
@@ -34451,31 +34451,31 @@
         <v>25.90779862123783</v>
       </c>
       <c r="L45" t="n">
-        <v>34.83623246718577</v>
+        <v>34.83623246718578</v>
       </c>
       <c r="M45" t="n">
-        <v>40.65224017027213</v>
+        <v>40.65224017027214</v>
       </c>
       <c r="N45" t="n">
-        <v>41.72818400306331</v>
+        <v>41.72818400306332</v>
       </c>
       <c r="O45" t="n">
-        <v>38.17313610034191</v>
+        <v>38.17313610034192</v>
       </c>
       <c r="P45" t="n">
-        <v>30.63730712365083</v>
+        <v>30.63730712365084</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.48022845621603</v>
+        <v>20.48022845621604</v>
       </c>
       <c r="R45" t="n">
-        <v>9.96145251601822</v>
+        <v>9.961452516018221</v>
       </c>
       <c r="S45" t="n">
-        <v>2.98013219873814</v>
+        <v>2.980132198738141</v>
       </c>
       <c r="T45" t="n">
-        <v>0.6466922055821374</v>
+        <v>0.6466922055821375</v>
       </c>
       <c r="U45" t="n">
         <v>0.01055536788218941</v>
@@ -34518,16 +34518,16 @@
         <v>0.1345088409905229</v>
       </c>
       <c r="H46" t="n">
-        <v>1.195905877170286</v>
+        <v>1.195905877170287</v>
       </c>
       <c r="I46" t="n">
-        <v>4.045047690878635</v>
+        <v>4.045047690878636</v>
       </c>
       <c r="J46" t="n">
-        <v>9.50977505802997</v>
+        <v>9.509775058029971</v>
       </c>
       <c r="K46" t="n">
-        <v>15.62748170780802</v>
+        <v>15.62748170780803</v>
       </c>
       <c r="L46" t="n">
         <v>19.99779623235466</v>
@@ -34536,7 +34536,7 @@
         <v>21.08487222908715</v>
       </c>
       <c r="N46" t="n">
-        <v>20.58352109448612</v>
+        <v>20.58352109448613</v>
       </c>
       <c r="O46" t="n">
         <v>19.01221327018774</v>
@@ -34548,16 +34548,16 @@
         <v>11.26328122148824</v>
       </c>
       <c r="R46" t="n">
-        <v>6.048006613992055</v>
+        <v>6.048006613992057</v>
       </c>
       <c r="S46" t="n">
         <v>2.344122256171203</v>
       </c>
       <c r="T46" t="n">
-        <v>0.5747195933231432</v>
+        <v>0.5747195933231433</v>
       </c>
       <c r="U46" t="n">
-        <v>0.007336845872210349</v>
+        <v>0.007336845872210351</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35428,7 +35428,7 @@
         <v>133.6865861558127</v>
       </c>
       <c r="Q11" t="n">
-        <v>22.39128115104442</v>
+        <v>22.39128115104443</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>152.5315966594574</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>267.1221979907708</v>
       </c>
       <c r="M12" t="n">
+        <v>229.851822230194</v>
+      </c>
+      <c r="N12" t="n">
         <v>322.1238511850647</v>
-      </c>
-      <c r="N12" t="n">
-        <v>191.2726097656636</v>
       </c>
       <c r="O12" t="n">
         <v>289.439210932627</v>
       </c>
       <c r="P12" t="n">
-        <v>215.1256683492578</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.57574210604361</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,16 +35574,16 @@
         <v>47.5878214926708</v>
       </c>
       <c r="M13" t="n">
-        <v>60.66874919092773</v>
+        <v>60.66874919092774</v>
       </c>
       <c r="N13" t="n">
-        <v>64.71569347371471</v>
+        <v>64.71569347371472</v>
       </c>
       <c r="O13" t="n">
-        <v>43.59734118422741</v>
+        <v>43.59734118422742</v>
       </c>
       <c r="P13" t="n">
-        <v>13.54679217887454</v>
+        <v>13.54679217887455</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>133.6865861558127</v>
       </c>
       <c r="Q14" t="n">
-        <v>22.39128115104442</v>
+        <v>22.39128115104443</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>14.41162064375828</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>152.5315966594574</v>
       </c>
       <c r="L15" t="n">
-        <v>21.68035524005642</v>
+        <v>267.1221979907708</v>
       </c>
       <c r="M15" t="n">
         <v>322.1238511850647</v>
       </c>
       <c r="N15" t="n">
-        <v>322.1238511850647</v>
+        <v>229.8518222301941</v>
       </c>
       <c r="O15" t="n">
         <v>289.439210932627</v>
       </c>
       <c r="P15" t="n">
-        <v>215.1256683492578</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.57574210604361</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>68.21396114517056</v>
+        <v>68.21396114517057</v>
       </c>
       <c r="L16" t="n">
         <v>122.4437927559162</v>
@@ -35820,7 +35820,7 @@
         <v>118.4533124474728</v>
       </c>
       <c r="P16" t="n">
-        <v>88.40276344211993</v>
+        <v>88.40276344211995</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>14.41162064375828</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>36.09197588381471</v>
+        <v>267.1221979907708</v>
       </c>
       <c r="M18" t="n">
-        <v>322.1238511850647</v>
+        <v>291.807676783608</v>
       </c>
       <c r="N18" t="n">
         <v>322.1238511850647</v>
@@ -35978,7 +35978,7 @@
         <v>289.439210932627</v>
       </c>
       <c r="P18" t="n">
-        <v>215.1256683492578</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>90.57574210604362</v>
@@ -36124,10 +36124,10 @@
         <v>142.1994360957974</v>
       </c>
       <c r="L20" t="n">
-        <v>229.215648896181</v>
+        <v>229.2156488961811</v>
       </c>
       <c r="M20" t="n">
-        <v>271.8208628808255</v>
+        <v>271.8208628808254</v>
       </c>
       <c r="N20" t="n">
         <v>261.4394131213788</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>14.41162064375828</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>152.5315966594574</v>
@@ -36206,19 +36206,19 @@
         <v>267.1221979907708</v>
       </c>
       <c r="M21" t="n">
-        <v>304.1653648135634</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>322.1238511850647</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>289.439210932627</v>
       </c>
       <c r="P21" t="n">
         <v>215.1256683492578</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>29.13777452469473</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,10 +36361,10 @@
         <v>142.1994360957974</v>
       </c>
       <c r="L23" t="n">
-        <v>263.4462689210822</v>
+        <v>229.215648896181</v>
       </c>
       <c r="M23" t="n">
-        <v>271.8208628808254</v>
+        <v>306.0514829057266</v>
       </c>
       <c r="N23" t="n">
         <v>261.4394131213788</v>
@@ -36373,10 +36373,10 @@
         <v>276.081716908012</v>
       </c>
       <c r="P23" t="n">
-        <v>208.5425574190581</v>
+        <v>133.6865861558127</v>
       </c>
       <c r="Q23" t="n">
-        <v>22.39128115104443</v>
+        <v>97.24725241428982</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>267.1221979907708</v>
       </c>
       <c r="M24" t="n">
-        <v>208.1648539005504</v>
+        <v>364.2232699982537</v>
       </c>
       <c r="N24" t="n">
-        <v>387.4836849800879</v>
+        <v>140.8495267763412</v>
       </c>
       <c r="O24" t="n">
         <v>289.439210932627</v>
@@ -36455,7 +36455,7 @@
         <v>215.1256683492578</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>90.57574210604362</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>13.50132569606572</v>
+        <v>88.35729695931111</v>
       </c>
       <c r="K26" t="n">
-        <v>176.4300561206986</v>
+        <v>217.0554073590428</v>
       </c>
       <c r="L26" t="n">
         <v>229.215648896181</v>
@@ -36604,16 +36604,16 @@
         <v>271.8208628808254</v>
       </c>
       <c r="N26" t="n">
-        <v>336.2953843846242</v>
+        <v>261.4394131213788</v>
       </c>
       <c r="O26" t="n">
-        <v>276.081716908012</v>
+        <v>201.2257456447666</v>
       </c>
       <c r="P26" t="n">
         <v>208.5425574190581</v>
       </c>
       <c r="Q26" t="n">
-        <v>22.39128115104443</v>
+        <v>56.62190117594558</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>14.41162064375828</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>152.5315966594574</v>
       </c>
       <c r="L27" t="n">
-        <v>235.6137081362817</v>
+        <v>267.1221979907708</v>
       </c>
       <c r="M27" t="n">
         <v>364.2232699982537</v>
@@ -36686,13 +36686,13 @@
         <v>387.4836849800879</v>
       </c>
       <c r="O27" t="n">
-        <v>289.439210932627</v>
+        <v>147.7924154786821</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>215.1256683492578</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.57574210604362</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>88.35729695931111</v>
+        <v>13.50132569606572</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0554073590428</v>
+        <v>142.1994360957974</v>
       </c>
       <c r="L29" t="n">
-        <v>229.215648896181</v>
+        <v>304.0716201594264</v>
       </c>
       <c r="M29" t="n">
         <v>271.8208628808254</v>
@@ -36847,7 +36847,7 @@
         <v>201.2257456447666</v>
       </c>
       <c r="P29" t="n">
-        <v>133.6865861558127</v>
+        <v>208.5425574190581</v>
       </c>
       <c r="Q29" t="n">
         <v>97.24725241428982</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>14.41162064375828</v>
       </c>
       <c r="K30" t="n">
         <v>152.5315966594574</v>
       </c>
       <c r="L30" t="n">
-        <v>34.8996604307819</v>
+        <v>111.0637818930674</v>
       </c>
       <c r="M30" t="n">
         <v>364.2232699982537</v>
       </c>
       <c r="N30" t="n">
-        <v>387.4836849800878</v>
+        <v>387.4836849800879</v>
       </c>
       <c r="O30" t="n">
         <v>289.439210932627</v>
@@ -36929,7 +36929,7 @@
         <v>215.1256683492578</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.57574210604362</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>88.35729695931111</v>
       </c>
       <c r="K32" t="n">
-        <v>176.4300561206976</v>
+        <v>142.1994360957974</v>
       </c>
       <c r="L32" t="n">
         <v>229.215648896181</v>
@@ -37078,7 +37078,7 @@
         <v>271.8208628808254</v>
       </c>
       <c r="N32" t="n">
-        <v>261.4394131213788</v>
+        <v>295.6700331462795</v>
       </c>
       <c r="O32" t="n">
         <v>201.2257456447666</v>
@@ -37157,13 +37157,13 @@
         <v>364.2232699982537</v>
       </c>
       <c r="N33" t="n">
-        <v>387.4836849800877</v>
+        <v>231.425268882384</v>
       </c>
       <c r="O33" t="n">
         <v>289.439210932627</v>
       </c>
       <c r="P33" t="n">
-        <v>59.06725225155389</v>
+        <v>215.1256683492578</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>142.1994360957974</v>
       </c>
       <c r="L35" t="n">
-        <v>229.2156488961811</v>
+        <v>229.215648896181</v>
       </c>
       <c r="M35" t="n">
         <v>271.8208628808254</v>
@@ -37324,7 +37324,7 @@
         <v>133.6865861558127</v>
       </c>
       <c r="Q35" t="n">
-        <v>22.39128115104443</v>
+        <v>22.3912811510445</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>14.41162064375828</v>
       </c>
       <c r="K36" t="n">
-        <v>152.5315966594574</v>
+        <v>60.25956770458684</v>
       </c>
       <c r="L36" t="n">
         <v>267.1221979907708</v>
@@ -37397,13 +37397,13 @@
         <v>322.1238511850647</v>
       </c>
       <c r="O36" t="n">
-        <v>106.5914398717128</v>
+        <v>289.439210932627</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.57574210604362</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>13.50132569606572</v>
+        <v>13.50132569606583</v>
       </c>
       <c r="K38" t="n">
         <v>142.1994360957974</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>14.41162064375828</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>152.5315966594574</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>267.1221979907708</v>
       </c>
       <c r="M39" t="n">
-        <v>213.58962270752</v>
+        <v>322.1238511850647</v>
       </c>
       <c r="N39" t="n">
         <v>322.1238511850647</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>289.439210932627</v>
       </c>
       <c r="P39" t="n">
-        <v>215.1256683492578</v>
+        <v>74.67118834834521</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.57574210604362</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>229.215648896181</v>
       </c>
       <c r="M41" t="n">
-        <v>271.8208628808255</v>
+        <v>271.8208628808254</v>
       </c>
       <c r="N41" t="n">
         <v>261.4394131213788</v>
@@ -37798,7 +37798,7 @@
         <v>133.6865861558127</v>
       </c>
       <c r="Q41" t="n">
-        <v>22.39128115104442</v>
+        <v>22.39128115104443</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>14.41162064375828</v>
       </c>
       <c r="K42" t="n">
-        <v>112.2560973460997</v>
+        <v>152.5315966594574</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>322.1238511850647</v>
       </c>
       <c r="N42" t="n">
-        <v>322.1238511850647</v>
+        <v>191.2726097656638</v>
       </c>
       <c r="O42" t="n">
         <v>289.439210932627</v>
@@ -37877,7 +37877,7 @@
         <v>215.1256683492578</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>90.57574210604362</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.21396114517056</v>
+        <v>68.21396114517057</v>
       </c>
       <c r="L43" t="n">
         <v>122.4437927559162</v>
@@ -37953,7 +37953,7 @@
         <v>118.4533124474728</v>
       </c>
       <c r="P43" t="n">
-        <v>88.40276344211993</v>
+        <v>88.40276344211995</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>133.6865861558127</v>
       </c>
       <c r="Q44" t="n">
-        <v>22.39128115104442</v>
+        <v>22.39128115104443</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38102,7 +38102,7 @@
         <v>267.1221979907708</v>
       </c>
       <c r="M45" t="n">
-        <v>322.1238511850647</v>
+        <v>76.68200843435044</v>
       </c>
       <c r="N45" t="n">
         <v>322.1238511850647</v>
@@ -38111,10 +38111,10 @@
         <v>289.439210932627</v>
       </c>
       <c r="P45" t="n">
-        <v>60.25956770458696</v>
+        <v>215.1256683492578</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>90.57574210604362</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,16 +38181,16 @@
         <v>47.5878214926708</v>
       </c>
       <c r="M46" t="n">
-        <v>60.66874919092773</v>
+        <v>60.66874919092774</v>
       </c>
       <c r="N46" t="n">
-        <v>64.71569347371471</v>
+        <v>64.71569347371472</v>
       </c>
       <c r="O46" t="n">
-        <v>43.59734118422741</v>
+        <v>43.59734118422742</v>
       </c>
       <c r="P46" t="n">
-        <v>13.54679217887454</v>
+        <v>13.54679217887455</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
